--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_61.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_61.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Econo Lodge Kenner</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Kenner</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>97</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4145</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70062</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70062</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_61.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_61.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="642">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1860 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r620678626-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40247</t>
+  </si>
+  <si>
+    <t>508042</t>
+  </si>
+  <si>
+    <t>620678626</t>
+  </si>
+  <si>
+    <t>09/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit stop </t>
+  </si>
+  <si>
+    <t>Wished I’d have seen the reviews for this place beforehand, but because we’d stayed in other econo lodges and had good experiences we believed that this would be the same.........but how wrong was we.Room was dirty looking, marks on bed topper. Most of the plug points did not work in the room. Felt like I should wear flip flops whilst having a shower as bathtub did not feel clean underfoot. Grime and rubbish in corners of bathroom which was very tiny. Whole place in desperate need of refurbishment or at the very least very good clean and a lick of paint. Only thing going for room was decent tv. Would not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Wished I’d have seen the reviews for this place beforehand, but because we’d stayed in other econo lodges and had good experiences we believed that this would be the same.........but how wrong was we.Room was dirty looking, marks on bed topper. Most of the plug points did not work in the room. Felt like I should wear flip flops whilst having a shower as bathtub did not feel clean underfoot. Grime and rubbish in corners of bathroom which was very tiny. Whole place in desperate need of refurbishment or at the very least very good clean and a lick of paint. Only thing going for room was decent tv. Would not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r599958624-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>599958624</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Nauseating and Repulsive. Enter at your own Risk !!!</t>
+  </si>
+  <si>
+    <t>These disgraceful,  inexcusable and unforgivable conditions give legitimate hotel/motel owners a bad reputation in a community of people have strived to overcome bias for many years. It was at the bottom of the barrel or  "Potel Hell". This hotel  should be avoided at all cost if you value you or your family's health. There was blatant disregard for hygienic practices that could lead to serious infection and disease. I specifically told the manager, Paul Patel,  that it was the worst hotel I have ever seen. My words didn't seem to affect him.
+The place is literally falling apart. The furniture looks like they shopped an auction and bought what no one else wanted. I would not stay there even if I slept with my clothes on. ( I went into my room and immediately left and called Choice Hotels for a refund). I probably would have a cleaner room in a jail cell. Hasn't anybody questioned this hotel and done an inquiry on their health department records?  Mystery stains on everything. You know that they don't care about the guest's overall risk of infectious diseases or other health threats they may catch (bacteria, mold, germs, STD's that can be transmitted through unclean towels and bed linens)  while staying at their motel. Can you imagine the bacteria and germs in the pools?  I cannot believe that this was a Choice Hotels property. The neighborhood cannot be blamed for the conditions of...These disgraceful,  inexcusable and unforgivable conditions give legitimate hotel/motel owners a bad reputation in a community of people have strived to overcome bias for many years. It was at the bottom of the barrel or  "Potel Hell". This hotel  should be avoided at all cost if you value you or your family's health. There was blatant disregard for hygienic practices that could lead to serious infection and disease. I specifically told the manager, Paul Patel,  that it was the worst hotel I have ever seen. My words didn't seem to affect him.The place is literally falling apart. The furniture looks like they shopped an auction and bought what no one else wanted. I would not stay there even if I slept with my clothes on. ( I went into my room and immediately left and called Choice Hotels for a refund). I probably would have a cleaner room in a jail cell. Hasn't anybody questioned this hotel and done an inquiry on their health department records?  Mystery stains on everything. You know that they don't care about the guest's overall risk of infectious diseases or other health threats they may catch (bacteria, mold, germs, STD's that can be transmitted through unclean towels and bed linens)  while staying at their motel. Can you imagine the bacteria and germs in the pools?  I cannot believe that this was a Choice Hotels property. The neighborhood cannot be blamed for the conditions of the motel. I had recently been in town for the Jazz Fest and stayed at the Contempra Inn, just a block away and paid a lower price for a really nice and tidy room. Read my review of the Contempra Inn and you may save yourself from the EconoLodge in Kenner, LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>These disgraceful,  inexcusable and unforgivable conditions give legitimate hotel/motel owners a bad reputation in a community of people have strived to overcome bias for many years. It was at the bottom of the barrel or  "Potel Hell". This hotel  should be avoided at all cost if you value you or your family's health. There was blatant disregard for hygienic practices that could lead to serious infection and disease. I specifically told the manager, Paul Patel,  that it was the worst hotel I have ever seen. My words didn't seem to affect him.
+The place is literally falling apart. The furniture looks like they shopped an auction and bought what no one else wanted. I would not stay there even if I slept with my clothes on. ( I went into my room and immediately left and called Choice Hotels for a refund). I probably would have a cleaner room in a jail cell. Hasn't anybody questioned this hotel and done an inquiry on their health department records?  Mystery stains on everything. You know that they don't care about the guest's overall risk of infectious diseases or other health threats they may catch (bacteria, mold, germs, STD's that can be transmitted through unclean towels and bed linens)  while staying at their motel. Can you imagine the bacteria and germs in the pools?  I cannot believe that this was a Choice Hotels property. The neighborhood cannot be blamed for the conditions of...These disgraceful,  inexcusable and unforgivable conditions give legitimate hotel/motel owners a bad reputation in a community of people have strived to overcome bias for many years. It was at the bottom of the barrel or  "Potel Hell". This hotel  should be avoided at all cost if you value you or your family's health. There was blatant disregard for hygienic practices that could lead to serious infection and disease. I specifically told the manager, Paul Patel,  that it was the worst hotel I have ever seen. My words didn't seem to affect him.The place is literally falling apart. The furniture looks like they shopped an auction and bought what no one else wanted. I would not stay there even if I slept with my clothes on. ( I went into my room and immediately left and called Choice Hotels for a refund). I probably would have a cleaner room in a jail cell. Hasn't anybody questioned this hotel and done an inquiry on their health department records?  Mystery stains on everything. You know that they don't care about the guest's overall risk of infectious diseases or other health threats they may catch (bacteria, mold, germs, STD's that can be transmitted through unclean towels and bed linens)  while staying at their motel. Can you imagine the bacteria and germs in the pools?  I cannot believe that this was a Choice Hotels property. The neighborhood cannot be blamed for the conditions of the motel. I had recently been in town for the Jazz Fest and stayed at the Contempra Inn, just a block away and paid a lower price for a really nice and tidy room. Read my review of the Contempra Inn and you may save yourself from the EconoLodge in Kenner, LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r583491136-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583491136</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Worse than I thought it would be</t>
+  </si>
+  <si>
+    <t>After reading some bad reviews I figured it couldn't be that bad and decided to give this place a shot.  I was wrong.  The room smelled like a mixture of smoke and old damp carpet.  There was a chair that looked like they pulled it out of a dumpster.  It had rips and stains on it.  The top sheet on the bed had multiple stains on it.  The walls had peeling paint as well as drawings on it.  The bathroom was clean but the toilet was loose and when you sat on it would move.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r572980974-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>572980974</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Daughter surprised me for my Birthday</t>
+  </si>
+  <si>
+    <t>This place is out dated. Needs work. Bug's inside the room. It was raining water coming into  the room. Bathroom was really small. no maid service the whole time we where there. The room smelled liked rotten water.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r572326761-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>572326761</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>I would have given this hotel zero stars if I were just reviewing the room. It was filthy; trash on the floor, damp patches on the ceiling, mouldy dirty Windows and what I found behind the bed was gross!However, the complex is nice with a pool and the manager was very apologetic and offered a generous refund. Apparently the second floor are older rooms, so ask for 1st or 3rd floor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r540412615-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>540412615</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Good value but in need of repair</t>
+  </si>
+  <si>
+    <t>The place is pretty run down. For the most part the room was clean but in need of serious renovation &amp; updating.  The bathroom was tiny, the a/c got cool but not cold and the room smelled musty.Overall, just ok.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r533340375-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>533340375</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>I was so embarrassed!</t>
+  </si>
+  <si>
+    <t>Nasty filthy.hair in bathtub and left over wash towels. math in elevator hadn't been clean for weeks. On top of that my girl and I spent the day on burban Street came back our room wasn't tuched! She want to the office to see for towel she told them our room wasn't clean they told her we must of had the do not disturb sign on the door!  Daaaaaaa. It was inside the room on the floor. Trust me not worth  $79.00.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r500026628-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>500026628</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>The WORST place I Ever Stayed in my LIFE</t>
+  </si>
+  <si>
+    <t>First of all let me say that the pictures might look OK on line, but RUN FOR THE HILLS.  I wish I had.  First off, we had booked the room the night before we flew out of MSY on an International flight.  When we arrived, the desk clerk did not have our reservation, even though I had a confirmation from Booking.Com.  She would do NOTHING to help us and was a rude as anyone I have ever met.  We called BOOKING.COM and she refused to talk to them, so we ask BOOKING to cancel the reservation.  I should have left then while I had a chance, but was afraid we would have trouble finding a room at the last minute so we re=booked through the hotel.
+When we entered the room it smelled musty and even when the air conditioner was on the odor lingered.  We were afraid to put our luggage anywhere but on the desk for fear of fleas or other mites.  We checked the bed carefully before getting in to be sure that there were no bed begs in sight.  The sheets we clean enough, but I could not sleep due to the overall filthiness of the room.
+The bathroom was another horror.  There was a cobweb in the corner of the room which had not been removed by housekeeping.  There were toiletries left for the guests use, but they were the cheap, cheap, cheap and did...First of all let me say that the pictures might look OK on line, but RUN FOR THE HILLS.  I wish I had.  First off, we had booked the room the night before we flew out of MSY on an International flight.  When we arrived, the desk clerk did not have our reservation, even though I had a confirmation from Booking.Com.  She would do NOTHING to help us and was a rude as anyone I have ever met.  We called BOOKING.COM and she refused to talk to them, so we ask BOOKING to cancel the reservation.  I should have left then while I had a chance, but was afraid we would have trouble finding a room at the last minute so we re=booked through the hotel.When we entered the room it smelled musty and even when the air conditioner was on the odor lingered.  We were afraid to put our luggage anywhere but on the desk for fear of fleas or other mites.  We checked the bed carefully before getting in to be sure that there were no bed begs in sight.  The sheets we clean enough, but I could not sleep due to the overall filthiness of the room.The bathroom was another horror.  There was a cobweb in the corner of the room which had not been removed by housekeeping.  There were toiletries left for the guests use, but they were the cheap, cheap, cheap and did not suds at all. The tub was filthy and had tub rings all around.  I was AFRAID to take a bath, even though I am a batch person, so a shower had to do.  All I can say is DONOT book a room here unless you are there to turn a cheap trick. That is the kind of flea bag place this is,MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>First of all let me say that the pictures might look OK on line, but RUN FOR THE HILLS.  I wish I had.  First off, we had booked the room the night before we flew out of MSY on an International flight.  When we arrived, the desk clerk did not have our reservation, even though I had a confirmation from Booking.Com.  She would do NOTHING to help us and was a rude as anyone I have ever met.  We called BOOKING.COM and she refused to talk to them, so we ask BOOKING to cancel the reservation.  I should have left then while I had a chance, but was afraid we would have trouble finding a room at the last minute so we re=booked through the hotel.
+When we entered the room it smelled musty and even when the air conditioner was on the odor lingered.  We were afraid to put our luggage anywhere but on the desk for fear of fleas or other mites.  We checked the bed carefully before getting in to be sure that there were no bed begs in sight.  The sheets we clean enough, but I could not sleep due to the overall filthiness of the room.
+The bathroom was another horror.  There was a cobweb in the corner of the room which had not been removed by housekeeping.  There were toiletries left for the guests use, but they were the cheap, cheap, cheap and did...First of all let me say that the pictures might look OK on line, but RUN FOR THE HILLS.  I wish I had.  First off, we had booked the room the night before we flew out of MSY on an International flight.  When we arrived, the desk clerk did not have our reservation, even though I had a confirmation from Booking.Com.  She would do NOTHING to help us and was a rude as anyone I have ever met.  We called BOOKING.COM and she refused to talk to them, so we ask BOOKING to cancel the reservation.  I should have left then while I had a chance, but was afraid we would have trouble finding a room at the last minute so we re=booked through the hotel.When we entered the room it smelled musty and even when the air conditioner was on the odor lingered.  We were afraid to put our luggage anywhere but on the desk for fear of fleas or other mites.  We checked the bed carefully before getting in to be sure that there were no bed begs in sight.  The sheets we clean enough, but I could not sleep due to the overall filthiness of the room.The bathroom was another horror.  There was a cobweb in the corner of the room which had not been removed by housekeeping.  There were toiletries left for the guests use, but they were the cheap, cheap, cheap and did not suds at all. The tub was filthy and had tub rings all around.  I was AFRAID to take a bath, even though I am a batch person, so a shower had to do.  All I can say is DONOT book a room here unless you are there to turn a cheap trick. That is the kind of flea bag place this is,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r499489096-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>499489096</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Essence festival</t>
+  </si>
+  <si>
+    <t>Could not get downtown New Orleans because of the price at the time when we truly decided to attend the essence festival. The econo lodge was the closest we could get at a reasonable price. However, the hotel is outdated and rundown. The bathroom was clean, but the bedsheets felt and looked dirty. There was also construction going on. I did not feel completely safe. They offered continental breakfast which was ok. I'm not saying I wouldn't stay here again but would be my last resort.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r488170167-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>488170167</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Horrible!!!!!</t>
+  </si>
+  <si>
+    <t>Cigarette holes in sheets, swimming pool filthy, thong underwear left in the floor, used soap left in the shower, killed a roach on the wall, caught a lizard in the room, a/c not good, trash left in the floor... pay more and stay somewhere else!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r483889779-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>483889779</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>3rd stay</t>
+  </si>
+  <si>
+    <t>3rd time staying here. Room was clean and comfortable. Exterior could use some upkeep. Grass needed to be cut in courtyard. Chairs were scattered about courtyard. Cigarette butts and trash on grounds. Breakfast is small. Pool was refreshing. Would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r477858578-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>477858578</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>Front door was broken and safety latch was missing. Security and area is terrible. Rooms are from 1970's and should be closed down.  I was thinking I might see Clark Griswald here before left. Worth $19.99 a night at best.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r466828555-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466828555</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>You're better off sleeping under a bridge</t>
+  </si>
+  <si>
+    <t>Awful. Horrible. Miserable. First of all, we were promised a room with double beds. We checked in to find that they gave us a room with one bed. So off to Walmart to buy an air mattress we go, which is just as fine because I would not have wanted to sleep on those sheets. The lamp shades were torn, the garbage wasn't empty, the chair was dirty and ripped. All night long we enjoyed the noise from the planes landing, almost like they were flying directly into our room. When you turned the fan on in the bathroom, it smelled like cigarette smoke. We asked for a wake up call at 7, they called at 8. Only two towels were in the bathroom so at 9:26am I called the front desk for more towels and was told "the housekeeper doesn't start until 9:30am." Okay... so can someone bring me towels or not? So my husband goes down stairs to try and get towels and they tell them they are out of towels... This place was beyond ridiculous. Trash everywhere, especially Newport cigarette boxes. This place would be better if it were burned to the ground. And what looked to be mold on the window seals. The air conditioner rattled most of the night. Needless to say, me nor my husband slept at all. The kids, who don't mind filth, seemed to be fine other than the smell..MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Awful. Horrible. Miserable. First of all, we were promised a room with double beds. We checked in to find that they gave us a room with one bed. So off to Walmart to buy an air mattress we go, which is just as fine because I would not have wanted to sleep on those sheets. The lamp shades were torn, the garbage wasn't empty, the chair was dirty and ripped. All night long we enjoyed the noise from the planes landing, almost like they were flying directly into our room. When you turned the fan on in the bathroom, it smelled like cigarette smoke. We asked for a wake up call at 7, they called at 8. Only two towels were in the bathroom so at 9:26am I called the front desk for more towels and was told "the housekeeper doesn't start until 9:30am." Okay... so can someone bring me towels or not? So my husband goes down stairs to try and get towels and they tell them they are out of towels... This place was beyond ridiculous. Trash everywhere, especially Newport cigarette boxes. This place would be better if it were burned to the ground. And what looked to be mold on the window seals. The air conditioner rattled most of the night. Needless to say, me nor my husband slept at all. The kids, who don't mind filth, seemed to be fine other than the smell..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r464297798-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>464297798</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>I wouldn't recommend this place to anyone</t>
+  </si>
+  <si>
+    <t>My family and I drove from Milwaukee Wisconsin to enjoy Mardi Gras. Upon arrival we noticed that the exterior of the building was filthy. When we enter the lobby it was even worse. We had to switch rooms three times. By the time we got to the third room we were so tired of switching rooms that we just tried to cancel the stay. They wouldn't let us cancel and we couldn't find other rooms in the area. We went to Walmart and bought cleaning supplies, sheets, towels, and extra blankets. There was mold all in the closet and the window. The sheets had blood stains and cigarette burns throughout. There was a used condom stuck to the ceiling and one of the bedrooms. There was a swimming pool at the facility but I dare not to use it because there were paper plates and plastic bags floating around in it, there was even a cat walking around by the pool. I do not recommend that anyone give this place a glance. Stay far away from here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I drove from Milwaukee Wisconsin to enjoy Mardi Gras. Upon arrival we noticed that the exterior of the building was filthy. When we enter the lobby it was even worse. We had to switch rooms three times. By the time we got to the third room we were so tired of switching rooms that we just tried to cancel the stay. They wouldn't let us cancel and we couldn't find other rooms in the area. We went to Walmart and bought cleaning supplies, sheets, towels, and extra blankets. There was mold all in the closet and the window. The sheets had blood stains and cigarette burns throughout. There was a used condom stuck to the ceiling and one of the bedrooms. There was a swimming pool at the facility but I dare not to use it because there were paper plates and plastic bags floating around in it, there was even a cat walking around by the pool. I do not recommend that anyone give this place a glance. Stay far away from here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r464182323-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>464182323</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place should be condemned! </t>
+  </si>
+  <si>
+    <t>Me and some family members went to visit New Orleans to celebrate Mardi Gras. We arrived to the hotel and were very disappointed from the moment we checked in. The elevators were filthy! There was a paper plate floating in the pool and big bag of trash sitting next to the pool and a dirty stray cat walking around the pool like he owned the place. When I got to my room (324) I  saw a big grease like stain on the bed throw. I went to the desk to call down and ask for new bedding and noticed that there wasn't even a phone in the room! As I turned to go back down my sister was at the door saying oh no my sheets have blood stains and the bathroom is nasty. (Room 319)I went to my bathroom and there was urine on the toilet and a loogie on the dirty wall! We went down stairs to request a different room and when we got down there my Nephew and his wife were already down there telling the desk attendant that they needed a different room as the ceiling in their room looked like it was going to cave in. We all were requesting our money back and were told that we had to call booking.com if we wanted our money back as they were not able to give refunds. We stood in the lobby for about an...Me and some family members went to visit New Orleans to celebrate Mardi Gras. We arrived to the hotel and were very disappointed from the moment we checked in. The elevators were filthy! There was a paper plate floating in the pool and big bag of trash sitting next to the pool and a dirty stray cat walking around the pool like he owned the place. When I got to my room (324) I  saw a big grease like stain on the bed throw. I went to the desk to call down and ask for new bedding and noticed that there wasn't even a phone in the room! As I turned to go back down my sister was at the door saying oh no my sheets have blood stains and the bathroom is nasty. (Room 319)I went to my bathroom and there was urine on the toilet and a loogie on the dirty wall! We went down stairs to request a different room and when we got down there my Nephew and his wife were already down there telling the desk attendant that they needed a different room as the ceiling in their room looked like it was going to cave in. We all were requesting our money back and were told that we had to call booking.com if we wanted our money back as they were not able to give refunds. We stood in the lobby for about an hour trying to call the agency to no avail. We called other hotels to see if they had any vacancy and every one was booked because of the event in town. We were forced to go to the nearest store and go buy towels and cleaning supplies and spent the entire 1st day of our vacation cleaning our rooms just to make them livable. The next morning I went to speak with the manager Paul Patel who nonchalantly stated that he was aware that rooms 320 -324 did not have phones but they were working on it and that I needed to call the booking company if I was not satisfied with the hotel and it's services. This hotel totally ruined what otherwise would have been a good vacation. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Me and some family members went to visit New Orleans to celebrate Mardi Gras. We arrived to the hotel and were very disappointed from the moment we checked in. The elevators were filthy! There was a paper plate floating in the pool and big bag of trash sitting next to the pool and a dirty stray cat walking around the pool like he owned the place. When I got to my room (324) I  saw a big grease like stain on the bed throw. I went to the desk to call down and ask for new bedding and noticed that there wasn't even a phone in the room! As I turned to go back down my sister was at the door saying oh no my sheets have blood stains and the bathroom is nasty. (Room 319)I went to my bathroom and there was urine on the toilet and a loogie on the dirty wall! We went down stairs to request a different room and when we got down there my Nephew and his wife were already down there telling the desk attendant that they needed a different room as the ceiling in their room looked like it was going to cave in. We all were requesting our money back and were told that we had to call booking.com if we wanted our money back as they were not able to give refunds. We stood in the lobby for about an...Me and some family members went to visit New Orleans to celebrate Mardi Gras. We arrived to the hotel and were very disappointed from the moment we checked in. The elevators were filthy! There was a paper plate floating in the pool and big bag of trash sitting next to the pool and a dirty stray cat walking around the pool like he owned the place. When I got to my room (324) I  saw a big grease like stain on the bed throw. I went to the desk to call down and ask for new bedding and noticed that there wasn't even a phone in the room! As I turned to go back down my sister was at the door saying oh no my sheets have blood stains and the bathroom is nasty. (Room 319)I went to my bathroom and there was urine on the toilet and a loogie on the dirty wall! We went down stairs to request a different room and when we got down there my Nephew and his wife were already down there telling the desk attendant that they needed a different room as the ceiling in their room looked like it was going to cave in. We all were requesting our money back and were told that we had to call booking.com if we wanted our money back as they were not able to give refunds. We stood in the lobby for about an hour trying to call the agency to no avail. We called other hotels to see if they had any vacancy and every one was booked because of the event in town. We were forced to go to the nearest store and go buy towels and cleaning supplies and spent the entire 1st day of our vacation cleaning our rooms just to make them livable. The next morning I went to speak with the manager Paul Patel who nonchalantly stated that he was aware that rooms 320 -324 did not have phones but they were working on it and that I needed to call the booking company if I was not satisfied with the hotel and it's services. This hotel totally ruined what otherwise would have been a good vacation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r461038628-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>461038628</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Shouldn't even be open</t>
+  </si>
+  <si>
+    <t>I don't understand how this hotel is still open. The pictures I saw online were so misleading I was shocked to see how disgusting this hotel was. Dingy and dirty with extremely sketchy people around. Would not recommend to my worst enemy.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r454229381-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>454229381</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>This is the worst place I have ever stayed. The rooms are old and dingy with holes in the bedspreads and telephone numbe</t>
+  </si>
+  <si>
+    <t>This is the worst place I have ever stayed. The rooms are old and dingy with holes in the bedspreads and telephone numbers scrawled on the bathroom wall. There was no phone or alarm clock in the first room I was registered in and I moved to another after 3 hours of waiting because I could not connect to the internet without sitting in a chair closest to the window with the curtains open. This advice was given to me by the front desk clerk. (I called the front desk from cell-phone 6 times and 4 of those times I was told to call back 30 minutes later and my new room would be ready). In the old room there was a microwave but the TV was very fuzzy and in the new room there was no microwave and neither had a small fridge which I thought was pretty standard in all hotels/motels in the 21st century. Further, were long strands of black hair in the bed sheets and again holes in the blankets and on the chairs. The walls and bathroom door are very dirty and have cracks and holes in them and the dressers are missing knobs and have cracks in them as well. About an hour after moving two people tried to barge into the door of the room which thankfully I had latched so they could only open it about an inch. Apparently, when I was...This is the worst place I have ever stayed. The rooms are old and dingy with holes in the bedspreads and telephone numbers scrawled on the bathroom wall. There was no phone or alarm clock in the first room I was registered in and I moved to another after 3 hours of waiting because I could not connect to the internet without sitting in a chair closest to the window with the curtains open. This advice was given to me by the front desk clerk. (I called the front desk from cell-phone 6 times and 4 of those times I was told to call back 30 minutes later and my new room would be ready). In the old room there was a microwave but the TV was very fuzzy and in the new room there was no microwave and neither had a small fridge which I thought was pretty standard in all hotels/motels in the 21st century. Further, were long strands of black hair in the bed sheets and again holes in the blankets and on the chairs. The walls and bathroom door are very dirty and have cracks and holes in them and the dressers are missing knobs and have cracks in them as well. About an hour after moving two people tried to barge into the door of the room which thankfully I had latched so they could only open it about an inch. Apparently, when I was moved the new room was not changed in the system which was unnerving being that I am a single woman traveling. I did not even put on my bed clothes because I wanted as little of my body to touch the sheets and I don't even want to think of the floor. There is a complementary breakfast which consisted of waffles, toast, muffins, and cereal but there was hardly any milk and no butter for the toast. I poured a glass of apple juice which was heavily watered down, and when I tried to pour some orange juice from the machine I was told that there wasn't anymore, so I settled for cranberry which ended up being just as watery as the apple...clearly done on purpose. Save your money and do not stay here unless your are a drug addict or pimp which seems to be some of these owners biggest clients.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worst place I have ever stayed. The rooms are old and dingy with holes in the bedspreads and telephone numbers scrawled on the bathroom wall. There was no phone or alarm clock in the first room I was registered in and I moved to another after 3 hours of waiting because I could not connect to the internet without sitting in a chair closest to the window with the curtains open. This advice was given to me by the front desk clerk. (I called the front desk from cell-phone 6 times and 4 of those times I was told to call back 30 minutes later and my new room would be ready). In the old room there was a microwave but the TV was very fuzzy and in the new room there was no microwave and neither had a small fridge which I thought was pretty standard in all hotels/motels in the 21st century. Further, were long strands of black hair in the bed sheets and again holes in the blankets and on the chairs. The walls and bathroom door are very dirty and have cracks and holes in them and the dressers are missing knobs and have cracks in them as well. About an hour after moving two people tried to barge into the door of the room which thankfully I had latched so they could only open it about an inch. Apparently, when I was...This is the worst place I have ever stayed. The rooms are old and dingy with holes in the bedspreads and telephone numbers scrawled on the bathroom wall. There was no phone or alarm clock in the first room I was registered in and I moved to another after 3 hours of waiting because I could not connect to the internet without sitting in a chair closest to the window with the curtains open. This advice was given to me by the front desk clerk. (I called the front desk from cell-phone 6 times and 4 of those times I was told to call back 30 minutes later and my new room would be ready). In the old room there was a microwave but the TV was very fuzzy and in the new room there was no microwave and neither had a small fridge which I thought was pretty standard in all hotels/motels in the 21st century. Further, were long strands of black hair in the bed sheets and again holes in the blankets and on the chairs. The walls and bathroom door are very dirty and have cracks and holes in them and the dressers are missing knobs and have cracks in them as well. About an hour after moving two people tried to barge into the door of the room which thankfully I had latched so they could only open it about an inch. Apparently, when I was moved the new room was not changed in the system which was unnerving being that I am a single woman traveling. I did not even put on my bed clothes because I wanted as little of my body to touch the sheets and I don't even want to think of the floor. There is a complementary breakfast which consisted of waffles, toast, muffins, and cereal but there was hardly any milk and no butter for the toast. I poured a glass of apple juice which was heavily watered down, and when I tried to pour some orange juice from the machine I was told that there wasn't anymore, so I settled for cranberry which ended up being just as watery as the apple...clearly done on purpose. Save your money and do not stay here unless your are a drug addict or pimp which seems to be some of these owners biggest clients.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r435497053-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435497053</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Terrible Disgusting, Dirty Dump - Stay Away</t>
+  </si>
+  <si>
+    <t>This was the absolute worst place we've ever stayed in!!  Filthy, dirty dump - front entry gives an indication as to what you're going to get.  Dirty stained path and step (urine??!!) widows smeared and don't look like they've been cleaned in years - dirty, dirty carpet - room stank, mouldy and old - neither of us slept well and would have left if it wasn't so late and for 1 night only - Avoid at all costs - you have been Warned!!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r433958053-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433958053</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Dirty Public areas</t>
+  </si>
+  <si>
+    <t>Elevator was dirty- public areas with garbage all around- garbage cans filled - I think they didn't empty them in the 2 days- missing light bulbs in the room etc... the room was to my surprise clean and comfortable</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r425285998-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>425285998</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Almost ruined my vacation</t>
+  </si>
+  <si>
+    <t>My husband and I took a vacation to New Orleans, we are from New York. We booked a 3 night stay at the Econo Lodge  in Kenner, it was close to the airport and affordably priced. We made it one night and only because we were so tired from our flight. Our room was so moldy it hurt to breathe. Sketchy characters were around and in this motel, my husband found used needles right outside the door of the motel where some shady guys asked him if he needed anything. We complained, we were given 2 more rooms, that were if even possible, even dirtier, cigarette burns in the bed, broken furniture, dirty shower and the list could go on. We immediately took our room key back to the front desk and said we were leaving, no one cared and no one even checked us out, the guy behind the counter just said, "ok." We then checked into the Comfort Suite right behind Econo Lodge and salvaged our vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I took a vacation to New Orleans, we are from New York. We booked a 3 night stay at the Econo Lodge  in Kenner, it was close to the airport and affordably priced. We made it one night and only because we were so tired from our flight. Our room was so moldy it hurt to breathe. Sketchy characters were around and in this motel, my husband found used needles right outside the door of the motel where some shady guys asked him if he needed anything. We complained, we were given 2 more rooms, that were if even possible, even dirtier, cigarette burns in the bed, broken furniture, dirty shower and the list could go on. We immediately took our room key back to the front desk and said we were leaving, no one cared and no one even checked us out, the guy behind the counter just said, "ok." We then checked into the Comfort Suite right behind Econo Lodge and salvaged our vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r378789078-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>378789078</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Horrible. Dirty. Burn holes in bedspread and mattress</t>
+  </si>
+  <si>
+    <t>The worst hotel I've ever stayed in. First pic is of blood stain on towel. Next pics in elevator. Latch on door was missing. Broken pulls on dresser. No bulbs in lamp. Sink was dirty. Too much to list.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r377454136-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>377454136</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Not Good...</t>
+  </si>
+  <si>
+    <t>I had a feeling when we pulled in it wasn't going to be good but my husband was tired and just wanted to be done for the evening. The room was dingy and moldy smelling,  the ottoman had rips and didn't look clean at all. This place needs a total remodel .  I tried off and on for a couple of hours to connect to the internet but never could.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r366729096-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>366729096</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Not so bad...</t>
+  </si>
+  <si>
+    <t>Stayed 6 nights. Our room was clean although the chair and ottoman in the room were stained. A patch of popcorn ceiling was missing. Room was clean. The other people with us had a pee stained sheet on one bed. There was NO wi-fi internet. It was available but never worked enough to actually connect to anything. I did not see any bugs. I would stay there again. Close to airport and dining. If the rates were to raise there would need to be a lot of cosmetic repairs to be made. Bathroom switch in our room had to be jiggled to make the light come on.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r365619402-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365619402</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for....no frills but good value!!!</t>
+  </si>
+  <si>
+    <t>Well I needed a nights rest during a recent trip to the States. We were flying out of New Orleans the next morning so we just looked for a handy place on the main road. The price was good and the room was fine, quite large with two double beds and it was clean too. Just what is says on the label.....good value and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r358226014-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>358226014</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>It's ok</t>
+  </si>
+  <si>
+    <t>I spent a week here (5 days). It was decent and less money then the other hotels in the area. The location is good with lots of good restaurants within walking distance. The staff was nice and friendly. I would stay again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r355304606-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>355304606</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>It's Not That Bad</t>
+  </si>
+  <si>
+    <t>There are a lot of complaints about this place, but honestly it wasn't that bad. The room we got was a decent size with a king sized bed, it was clean, the bathroom was nice - although the shower could use some repairs.
+Noise wise, it's very close to the airport so expect to hear planes taking off in the middle of the night occasionally. But if you enjoy watching planes, or your children do, you have a very nice view from the side of the hotel. The traffic in the area is busy, but you don't hear it unless someone rolls by with their radio blaring.
+The only problem that I had with this place was one of their employees on the late night shift. He was ignorant and not very well versed on how to run his station. Every answer I got was "I don't know." or "I can't do that." before he started rambling about something off topic. All of the ladies were friendly, knowledgeable and quick to help you with anything you needed - even information about the area and places to go eat.
+The pool was nice, but not very well maintained. It could use a clean along the surface of the water, but the water is clear otherwise and the colored lights late at night in the pool are nice and make for a good 3am swim.
+Other than that, it was a nice...There are a lot of complaints about this place, but honestly it wasn't that bad. The room we got was a decent size with a king sized bed, it was clean, the bathroom was nice - although the shower could use some repairs.Noise wise, it's very close to the airport so expect to hear planes taking off in the middle of the night occasionally. But if you enjoy watching planes, or your children do, you have a very nice view from the side of the hotel. The traffic in the area is busy, but you don't hear it unless someone rolls by with their radio blaring.The only problem that I had with this place was one of their employees on the late night shift. He was ignorant and not very well versed on how to run his station. Every answer I got was "I don't know." or "I can't do that." before he started rambling about something off topic. All of the ladies were friendly, knowledgeable and quick to help you with anything you needed - even information about the area and places to go eat.The pool was nice, but not very well maintained. It could use a clean along the surface of the water, but the water is clear otherwise and the colored lights late at night in the pool are nice and make for a good 3am swim.Other than that, it was a nice place for those on a budget. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>There are a lot of complaints about this place, but honestly it wasn't that bad. The room we got was a decent size with a king sized bed, it was clean, the bathroom was nice - although the shower could use some repairs.
+Noise wise, it's very close to the airport so expect to hear planes taking off in the middle of the night occasionally. But if you enjoy watching planes, or your children do, you have a very nice view from the side of the hotel. The traffic in the area is busy, but you don't hear it unless someone rolls by with their radio blaring.
+The only problem that I had with this place was one of their employees on the late night shift. He was ignorant and not very well versed on how to run his station. Every answer I got was "I don't know." or "I can't do that." before he started rambling about something off topic. All of the ladies were friendly, knowledgeable and quick to help you with anything you needed - even information about the area and places to go eat.
+The pool was nice, but not very well maintained. It could use a clean along the surface of the water, but the water is clear otherwise and the colored lights late at night in the pool are nice and make for a good 3am swim.
+Other than that, it was a nice...There are a lot of complaints about this place, but honestly it wasn't that bad. The room we got was a decent size with a king sized bed, it was clean, the bathroom was nice - although the shower could use some repairs.Noise wise, it's very close to the airport so expect to hear planes taking off in the middle of the night occasionally. But if you enjoy watching planes, or your children do, you have a very nice view from the side of the hotel. The traffic in the area is busy, but you don't hear it unless someone rolls by with their radio blaring.The only problem that I had with this place was one of their employees on the late night shift. He was ignorant and not very well versed on how to run his station. Every answer I got was "I don't know." or "I can't do that." before he started rambling about something off topic. All of the ladies were friendly, knowledgeable and quick to help you with anything you needed - even information about the area and places to go eat.The pool was nice, but not very well maintained. It could use a clean along the surface of the water, but the water is clear otherwise and the colored lights late at night in the pool are nice and make for a good 3am swim.Other than that, it was a nice place for those on a budget. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r353589731-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>353589731</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not worth it! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I decided to stay here because it was close to what I wanted to do and Doubletree was booked. After driving 10 hrs from FL, I was exhausted. The bed was made with sheets that had old blood stains and there were hairs on the sheets. The bathroom was clean. It was chilly, so I tried to turn the heat on, but it didn't work. I tried calling the desk, but didn't get an answer. I slept on top of the covers and used my personal blanket to cover up with. Unless major changes are made, I will not be staying here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r344648253-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>344648253</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>Room was comfortable. Pool nuce and clean. Breakfast small with cereal, muffins and waffles. Only one waffle maker though. Had to wait awhile to use it. Staff friendly. Actualk stayed twice. Would stay again.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r341814770-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>341814770</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>I am a pretty laid back person and minor little things don't worry me too much but this place is a dump. It felt like a rent by the hour type of hotel. The carpet was sticky the chair had unexplainable stains and to be honest I am not really sure if the sheets had been changed. No soap. The bathroom was not cleaned properly there is absolutely nothing that I could commend this place on. I would suggest to Mr econolodge that he takes this one off their list because it is sleazy, disgusting and to be really honest with the door locks I actually feared that someone would just walk in. Spend the extra money and stay away from this place even cockroaches wouldn't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I am a pretty laid back person and minor little things don't worry me too much but this place is a dump. It felt like a rent by the hour type of hotel. The carpet was sticky the chair had unexplainable stains and to be honest I am not really sure if the sheets had been changed. No soap. The bathroom was not cleaned properly there is absolutely nothing that I could commend this place on. I would suggest to Mr econolodge that he takes this one off their list because it is sleazy, disgusting and to be really honest with the door locks I actually feared that someone would just walk in. Spend the extra money and stay away from this place even cockroaches wouldn't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r341509566-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>341509566</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Can stand improvement</t>
+  </si>
+  <si>
+    <t>I stated here 2 nights the room smelled and the elevators badly worked anyone could walk right in you didn't need a room key to enter the building. For the price it could have been better.Room was not properly stocked and door locks were broke only one worked</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r340656307-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>340656307</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>They may take your belongings from the room. Be advised....</t>
+  </si>
+  <si>
+    <t>I stayed in room 106. When I checked in, room wasn´t ready or clean. It was dirty like let by previous guest. Same day personal took all our belongings (refrigerated food) from the room fridge. When I advised the manager, Mr. Paul, what happened, he acted with evasives and, by now, is refusing to reimburse us to the value of those meal. We bought them in Sams club, and decide to stay at that airport hotel just because they offered fridge in the room, to allow us to hold those food for our next trip stop. We sent all the food receipts to show the property how much it cost. We just receive apologies from this manager, but nothing solved. I advise you to your discretion in stay or not in that property, because you can have your belongings took from your room and they will not assume any responsibility for this, I will never stay again in other Econolodge brand because of that.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in room 106. When I checked in, room wasn´t ready or clean. It was dirty like let by previous guest. Same day personal took all our belongings (refrigerated food) from the room fridge. When I advised the manager, Mr. Paul, what happened, he acted with evasives and, by now, is refusing to reimburse us to the value of those meal. We bought them in Sams club, and decide to stay at that airport hotel just because they offered fridge in the room, to allow us to hold those food for our next trip stop. We sent all the food receipts to show the property how much it cost. We just receive apologies from this manager, but nothing solved. I advise you to your discretion in stay or not in that property, because you can have your belongings took from your room and they will not assume any responsibility for this, I will never stay again in other Econolodge brand because of that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r338321966-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>338321966</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Hands down nastiest place my husband and I have ever stayed at. We thought about getting a refund and going somewhere else, but it was late, we were tired and it was sugar bowl weekend. First room, the air conditioner/heater was taken completely apart and did not work. They moved us rooms. This new one had a "lamp" without a shade, just a bare bulb. White stains on the chairs. Microwave caked with smelly food. A plastic fork on the bathroom floor, hair in the tub. My husband took a 10 minute shower and that took all the hot water. One of the locks on the door was broken. What looked like blood stains outside in the walkways. Reading other reviews it looks like this place is normally $60, but being a football bowl game weekend, we paid $100. Both prices way too high for this dump. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hands down nastiest place my husband and I have ever stayed at. We thought about getting a refund and going somewhere else, but it was late, we were tired and it was sugar bowl weekend. First room, the air conditioner/heater was taken completely apart and did not work. They moved us rooms. This new one had a "lamp" without a shade, just a bare bulb. White stains on the chairs. Microwave caked with smelly food. A plastic fork on the bathroom floor, hair in the tub. My husband took a 10 minute shower and that took all the hot water. One of the locks on the door was broken. What looked like blood stains outside in the walkways. Reading other reviews it looks like this place is normally $60, but being a football bowl game weekend, we paid $100. Both prices way too high for this dump. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r317169211-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>317169211</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay </t>
+  </si>
+  <si>
+    <t>Not bad of a Hotel. Second stay there. Beds are a bit too firm for me. Rooms are spacious but bathroom small and claustrophobic. WiFi is terrible. Breakfast ok but only one waffle iron. Breakfast also has cereals and muffins. Pool is nice except they leave hose laying out to trip over.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r314864128-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>314864128</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Moldy</t>
+  </si>
+  <si>
+    <t>Stayed for just 6 hours and left. The room smelled of mold, when you opened the door it hit you like a ton of bricks! The room was from the 70's and the chairs were stained, probably shouldn't use light blue chairs in a hotel. Should've gone with black they HIDE everything! That way NO ONE will ever know how dirty they are.But the staff was great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r293539163-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>293539163</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Fine for a night</t>
+  </si>
+  <si>
+    <t>Maybe I had low expectations, but the room was fine. It looked clean and the bed was made. $65. It had a parking lot and it looked fine. Breakfast was bare bones, toast, cereal, muffins, coffee, juice and make your own waffles. People at the desk were ok and seemed friendly enough.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r290854863-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>290854863</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>NASTY!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>From the parking lot to the building nasty, the parking lot was so dirty.  I should have known this was going to be a nasty hotel.  Upon entering the establishment the smell of urine was everywhere.  The front desk told my boyfriend there was only one way to get to our room, the stairs. My boyfriend went to the "elevator" to go downstairs and get another key.  The smell on that elevator, I can't even describe it. I see why she  told him the stairs was the only way to our room.  Finally inside the room.  The bathroom door had a hole in it.  The bathroom looked like a crime scene.  The shower curtain had what looks like blood splatter, a yellowish red color on the curtain, wall and Kleenex holder. I turn on the water and brown water shoots out YUCK! When I go to the sink it was full of hair. GROSS! the toilet had pee in it EWWW! We had to buy sheets for the bed and Lysol disinfectant spray to clean the bathroom at 1 am. I know your asking why not go to a different room. It was 12:30 am when we got there and I think we would have been changing rooms all night. We didn't get to bed until 2:30am after cleaning up and changing sheets.  The next morning we noticed a chair in the room it was filthy the chair must have...From the parking lot to the building nasty, the parking lot was so dirty.  I should have known this was going to be a nasty hotel.  Upon entering the establishment the smell of urine was everywhere.  The front desk told my boyfriend there was only one way to get to our room, the stairs. My boyfriend went to the "elevator" to go downstairs and get another key.  The smell on that elevator, I can't even describe it. I see why she  told him the stairs was the only way to our room.  Finally inside the room.  The bathroom door had a hole in it.  The bathroom looked like a crime scene.  The shower curtain had what looks like blood splatter, a yellowish red color on the curtain, wall and Kleenex holder. I turn on the water and brown water shoots out YUCK! When I go to the sink it was full of hair. GROSS! the toilet had pee in it EWWW! We had to buy sheets for the bed and Lysol disinfectant spray to clean the bathroom at 1 am. I know your asking why not go to a different room. It was 12:30 am when we got there and I think we would have been changing rooms all night. We didn't get to bed until 2:30am after cleaning up and changing sheets.  The next morning we noticed a chair in the room it was filthy the chair must have came out of the trash.  We left for the day at 11 am came back to our room at 5 pm no one cleaned our room or  changed the towels nothing.  My boyfriend went to the front desk to get us some towels.  She was telling him the cleaning lady was new and didn't really know how to clean rooms that well.  We went to a different hotel.  I would not recommend anyone stay at the Econo Lodge.  People say you get what you pay for, if I paid $1 I would not be mad at all, but it was the weekend and my boyfriend was charged $100 for a $20 room.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the parking lot to the building nasty, the parking lot was so dirty.  I should have known this was going to be a nasty hotel.  Upon entering the establishment the smell of urine was everywhere.  The front desk told my boyfriend there was only one way to get to our room, the stairs. My boyfriend went to the "elevator" to go downstairs and get another key.  The smell on that elevator, I can't even describe it. I see why she  told him the stairs was the only way to our room.  Finally inside the room.  The bathroom door had a hole in it.  The bathroom looked like a crime scene.  The shower curtain had what looks like blood splatter, a yellowish red color on the curtain, wall and Kleenex holder. I turn on the water and brown water shoots out YUCK! When I go to the sink it was full of hair. GROSS! the toilet had pee in it EWWW! We had to buy sheets for the bed and Lysol disinfectant spray to clean the bathroom at 1 am. I know your asking why not go to a different room. It was 12:30 am when we got there and I think we would have been changing rooms all night. We didn't get to bed until 2:30am after cleaning up and changing sheets.  The next morning we noticed a chair in the room it was filthy the chair must have...From the parking lot to the building nasty, the parking lot was so dirty.  I should have known this was going to be a nasty hotel.  Upon entering the establishment the smell of urine was everywhere.  The front desk told my boyfriend there was only one way to get to our room, the stairs. My boyfriend went to the "elevator" to go downstairs and get another key.  The smell on that elevator, I can't even describe it. I see why she  told him the stairs was the only way to our room.  Finally inside the room.  The bathroom door had a hole in it.  The bathroom looked like a crime scene.  The shower curtain had what looks like blood splatter, a yellowish red color on the curtain, wall and Kleenex holder. I turn on the water and brown water shoots out YUCK! When I go to the sink it was full of hair. GROSS! the toilet had pee in it EWWW! We had to buy sheets for the bed and Lysol disinfectant spray to clean the bathroom at 1 am. I know your asking why not go to a different room. It was 12:30 am when we got there and I think we would have been changing rooms all night. We didn't get to bed until 2:30am after cleaning up and changing sheets.  The next morning we noticed a chair in the room it was filthy the chair must have came out of the trash.  We left for the day at 11 am came back to our room at 5 pm no one cleaned our room or  changed the towels nothing.  My boyfriend went to the front desk to get us some towels.  She was telling him the cleaning lady was new and didn't really know how to clean rooms that well.  We went to a different hotel.  I would not recommend anyone stay at the Econo Lodge.  People say you get what you pay for, if I paid $1 I would not be mad at all, but it was the weekend and my boyfriend was charged $100 for a $20 room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r285892823-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285892823</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second stay not much improvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my second stay here. You get what you pay for. Although it was a slight improvement from my stay in February. If you are a clean fanatic do not stay here. Not much time taken on cleaning the rooms. Nice TV but remotes don't work properly. Hot water runs out before the end of your shower then the next person has to wait for the water to heat back up. Breakfast is very limited. Waffles are the only thing going for breakfast. First day the pool was not cleaned. I was in a tight and all other hotels were booked management doesn't seem to care. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r285369076-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285369076</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely disgusting!!!!! </t>
+  </si>
+  <si>
+    <t>I'm not sure where to start with this hotel but this is by far one ofThe worst hotels I've ever stayed in . My husband and I stayed in room 112 . I can deal with a somewhat shabby exterior but this room was filthy. The chairs were stained the floors in bathroom were not vacuumed or maintained . The walls in bathroom were splattered with who knows what .The shower curtain was stained . We also asked for a non smoking room and our room smelled of stale cigarettes .  The walls near beds were smashed in . We arrived late and were flying out at 5:00am so in stead of a alarm we were woken up at 3:00 am because someone forgot to close and lock pool gate therefor it inhabited some loud obnoxious drunks . As we were leaving we realized that with the sheets pulled back there was a blood stain!!! As we we checked out the front desk man made a very racist statement . We then tried waiting outside because we just wanted this whole nightmare over . DO NOT BOOK A ROOM HERE !!!!!!!   MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm not sure where to start with this hotel but this is by far one ofThe worst hotels I've ever stayed in . My husband and I stayed in room 112 . I can deal with a somewhat shabby exterior but this room was filthy. The chairs were stained the floors in bathroom were not vacuumed or maintained . The walls in bathroom were splattered with who knows what .The shower curtain was stained . We also asked for a non smoking room and our room smelled of stale cigarettes .  The walls near beds were smashed in . We arrived late and were flying out at 5:00am so in stead of a alarm we were woken up at 3:00 am because someone forgot to close and lock pool gate therefor it inhabited some loud obnoxious drunks . As we were leaving we realized that with the sheets pulled back there was a blood stain!!! As we we checked out the front desk man made a very racist statement . We then tried waiting outside because we just wanted this whole nightmare over . DO NOT BOOK A ROOM HERE !!!!!!!   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r278734712-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>278734712</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>We stayed there 4 years ago and it was quite OK then, but Last week what à difference.We had to change room, the first was extremely dirty, carpet very dirty, bathroom not cleaned, furnitures broken, you could not see through th window.The second room was a little better but with hair all over in the bathroom, window and mirror have not been cleaned in a long time, no soap and shampooing,  we had to argue to have some. Food all over the place near the garbage cas and what was a nice flower bed is now covered with cigarette buts and beer bottle caps. WIf access was almost non existant.We will never recommend this joint.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We stayed there 4 years ago and it was quite OK then, but Last week what à difference.We had to change room, the first was extremely dirty, carpet very dirty, bathroom not cleaned, furnitures broken, you could not see through th window.The second room was a little better but with hair all over in the bathroom, window and mirror have not been cleaned in a long time, no soap and shampooing,  we had to argue to have some. Food all over the place near the garbage cas and what was a nice flower bed is now covered with cigarette buts and beer bottle caps. WIf access was almost non existant.We will never recommend this joint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r277388033-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>277388033</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>A Work in Progress</t>
+  </si>
+  <si>
+    <t>This may have been my worse experience ever at an EconoLodge. The internet worked sporadically at best, I wasn't able to plug the TV in. There were no available outlets within 12 feet of the desk area. There was enough coffee and condiments for one cup in the room. Oh, there was only one cup available. The ottoman had an ugly gash in it which exposed the white stuffing material. The chair had what looked like white paint stains on it. The shower curtain was less than adequate when you include getting water on the floor and staying closed while showering. 
+Still, I will not count this place out. The breakfast provided waffles, breads, cereals, and juices, along with coffee etc. I've had hard boiled eggs at some Econolodges in the past, but this one had no eggs, but I'd probably stay here again because they are renovating. The room has fresh paint, the exterior has fresh paint and the floor in the room has new-looking carpet. You can't beat the price for the area, but still, I was hoping for a bit more. With the work in progress, I'd expect this place to be much improved the next time I decide to stay in the area. It is conveniently located close to the NOLA airport, a Walmart, a Sam's Club and another shopping center. We're one block from I-10. A family friend's oldest daughter got married, so we had...This may have been my worse experience ever at an EconoLodge. The internet worked sporadically at best, I wasn't able to plug the TV in. There were no available outlets within 12 feet of the desk area. There was enough coffee and condiments for one cup in the room. Oh, there was only one cup available. The ottoman had an ugly gash in it which exposed the white stuffing material. The chair had what looked like white paint stains on it. The shower curtain was less than adequate when you include getting water on the floor and staying closed while showering. Still, I will not count this place out. The breakfast provided waffles, breads, cereals, and juices, along with coffee etc. I've had hard boiled eggs at some Econolodges in the past, but this one had no eggs, but I'd probably stay here again because they are renovating. The room has fresh paint, the exterior has fresh paint and the floor in the room has new-looking carpet. You can't beat the price for the area, but still, I was hoping for a bit more. With the work in progress, I'd expect this place to be much improved the next time I decide to stay in the area. It is conveniently located close to the NOLA airport, a Walmart, a Sam's Club and another shopping center. We're one block from I-10. A family friend's oldest daughter got married, so we had to visit. Don't count this place out! It's already moving in the right direction.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This may have been my worse experience ever at an EconoLodge. The internet worked sporadically at best, I wasn't able to plug the TV in. There were no available outlets within 12 feet of the desk area. There was enough coffee and condiments for one cup in the room. Oh, there was only one cup available. The ottoman had an ugly gash in it which exposed the white stuffing material. The chair had what looked like white paint stains on it. The shower curtain was less than adequate when you include getting water on the floor and staying closed while showering. 
+Still, I will not count this place out. The breakfast provided waffles, breads, cereals, and juices, along with coffee etc. I've had hard boiled eggs at some Econolodges in the past, but this one had no eggs, but I'd probably stay here again because they are renovating. The room has fresh paint, the exterior has fresh paint and the floor in the room has new-looking carpet. You can't beat the price for the area, but still, I was hoping for a bit more. With the work in progress, I'd expect this place to be much improved the next time I decide to stay in the area. It is conveniently located close to the NOLA airport, a Walmart, a Sam's Club and another shopping center. We're one block from I-10. A family friend's oldest daughter got married, so we had...This may have been my worse experience ever at an EconoLodge. The internet worked sporadically at best, I wasn't able to plug the TV in. There were no available outlets within 12 feet of the desk area. There was enough coffee and condiments for one cup in the room. Oh, there was only one cup available. The ottoman had an ugly gash in it which exposed the white stuffing material. The chair had what looked like white paint stains on it. The shower curtain was less than adequate when you include getting water on the floor and staying closed while showering. Still, I will not count this place out. The breakfast provided waffles, breads, cereals, and juices, along with coffee etc. I've had hard boiled eggs at some Econolodges in the past, but this one had no eggs, but I'd probably stay here again because they are renovating. The room has fresh paint, the exterior has fresh paint and the floor in the room has new-looking carpet. You can't beat the price for the area, but still, I was hoping for a bit more. With the work in progress, I'd expect this place to be much improved the next time I decide to stay in the area. It is conveniently located close to the NOLA airport, a Walmart, a Sam's Club and another shopping center. We're one block from I-10. A family friend's oldest daughter got married, so we had to visit. Don't count this place out! It's already moving in the right direction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r273207822-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273207822</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>No frills</t>
+  </si>
+  <si>
+    <t>Traveled for a weekend wedding. Stayed 3 days. Good location, right off the higway easy to locate. Parking lot well kept. Front desk was ver nice, friendly. Check inn very easy. Lobby old but clean. The pool area and walk ways were well maintained. The room was simple clean. Smelled old but used some air freshener. outdated furniture, but was not there for the furniture. The beds were comfortable not luxuries. Bathroom clean, curtain had some black stains. Water hot, there was 3 of us and no problem. Plenty of towels. There was some water leak stains on the ceiling here and there. Overall a good stay for the price paid. We only was in the room for a few hours each day. Like the security cameras the desk could see various areas. Also they lock the front door acess so no walk abouts. Now the breakfast area needs some attention during breakfast. Just a hot mess. Milk was just sitting on the counter, waffle batter all over no batter cups, no plastic ware. Not much to offer, but I didnt expect much. For the price, the location it is enough. SHout to the front desk guy Bhavin Lad very nice man and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traveled for a weekend wedding. Stayed 3 days. Good location, right off the higway easy to locate. Parking lot well kept. Front desk was ver nice, friendly. Check inn very easy. Lobby old but clean. The pool area and walk ways were well maintained. The room was simple clean. Smelled old but used some air freshener. outdated furniture, but was not there for the furniture. The beds were comfortable not luxuries. Bathroom clean, curtain had some black stains. Water hot, there was 3 of us and no problem. Plenty of towels. There was some water leak stains on the ceiling here and there. Overall a good stay for the price paid. We only was in the room for a few hours each day. Like the security cameras the desk could see various areas. Also they lock the front door acess so no walk abouts. Now the breakfast area needs some attention during breakfast. Just a hot mess. Milk was just sitting on the counter, waffle batter all over no batter cups, no plastic ware. Not much to offer, but I didnt expect much. For the price, the location it is enough. SHout to the front desk guy Bhavin Lad very nice man and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r267911234-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>267911234</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Bare Bones, but comfortable</t>
+  </si>
+  <si>
+    <t>If you are visiting New Orleans and need a good deal for a few nights lodging, this is the best bet. It is clean and close to the airport. No luxuries here, but a good night sleep with minimal impact on your wallet.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r265546744-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>265546744</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Good for a nite on the way to the airport</t>
+  </si>
+  <si>
+    <t>Good points:Close to the New Orleans airportBargain priceGreat Italian restaurant across the streetThe front desk staff is helpfulThe grounds / pool are well maintained On the other hand :It's critical to keep the a/c on to reduce the dampness smell</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r264256223-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>264256223</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Housekeeping needs to step it up</t>
+  </si>
+  <si>
+    <t>The GOOD:  Grounds are pretty well kept and the keeper seems to work very hard. The pool is very nice.
+Breakfast is all carbs. No fruit on the first day but on Saturday there were apples and oranges. The person that said you get what you pay for was exactly right. Every room seems to have different amenities. The bed was clean. The dresser and bathroom counter tops were very nice. The room was a nice size.
+The BAD:  Housekeeping needs to step it up a bit. Carpets appeared fairly clean and bathroom was nice except for the dirty bath tub. There were long strands of hair in the tub when I arrived and it appeared it hadn’t been scrubbed in a long time. Don’t ever think about giving a child a bath in that tub. There was coffee (I think) spilt down the wall and not cleaned; there was a dirty ironing board but no iron. I didn’t even realize I had a refrigerator until I was there for about 12 hours. The knobs were missing on the cabinet and I just thought it was more drawers. The refrigerator stopped working sometime during the night and there was water all over the bottom of the cabinet. The long mirror had hand prints all over it and the foot stool was badly worn and was sun faded. The sheets had holes in them and the alarm clock didn’t work. I...The GOOD:  Grounds are pretty well kept and the keeper seems to work very hard. The pool is very nice.Breakfast is all carbs. No fruit on the first day but on Saturday there were apples and oranges. The person that said you get what you pay for was exactly right. Every room seems to have different amenities. The bed was clean. The dresser and bathroom counter tops were very nice. The room was a nice size.The BAD:  Housekeeping needs to step it up a bit. Carpets appeared fairly clean and bathroom was nice except for the dirty bath tub. There were long strands of hair in the tub when I arrived and it appeared it hadn’t been scrubbed in a long time. Don’t ever think about giving a child a bath in that tub. There was coffee (I think) spilt down the wall and not cleaned; there was a dirty ironing board but no iron. I didn’t even realize I had a refrigerator until I was there for about 12 hours. The knobs were missing on the cabinet and I just thought it was more drawers. The refrigerator stopped working sometime during the night and there was water all over the bottom of the cabinet. The long mirror had hand prints all over it and the foot stool was badly worn and was sun faded. The sheets had holes in them and the alarm clock didn’t work. I asked for it to be replaced but don’t think that happened. It would make a very strange loud noise about every half hour and then the clock would start blinking. HBO was down at least 80% of the time.Safety  - I’d be careful. In 24 hours I saw police twice on or near the premises attending to people on the street or hotel.It met my needs while I waited for my family but it deserves the two stars. It appears they made an effort to make things a little nicer. They just need to follow through and housekeeping needs to step it up and pay closer attention to doing a good cleaning.If you like watching planes come in and leave, they were very close, but the noise wasn't too bad. It was kind of interesting.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The GOOD:  Grounds are pretty well kept and the keeper seems to work very hard. The pool is very nice.
+Breakfast is all carbs. No fruit on the first day but on Saturday there were apples and oranges. The person that said you get what you pay for was exactly right. Every room seems to have different amenities. The bed was clean. The dresser and bathroom counter tops were very nice. The room was a nice size.
+The BAD:  Housekeeping needs to step it up a bit. Carpets appeared fairly clean and bathroom was nice except for the dirty bath tub. There were long strands of hair in the tub when I arrived and it appeared it hadn’t been scrubbed in a long time. Don’t ever think about giving a child a bath in that tub. There was coffee (I think) spilt down the wall and not cleaned; there was a dirty ironing board but no iron. I didn’t even realize I had a refrigerator until I was there for about 12 hours. The knobs were missing on the cabinet and I just thought it was more drawers. The refrigerator stopped working sometime during the night and there was water all over the bottom of the cabinet. The long mirror had hand prints all over it and the foot stool was badly worn and was sun faded. The sheets had holes in them and the alarm clock didn’t work. I...The GOOD:  Grounds are pretty well kept and the keeper seems to work very hard. The pool is very nice.Breakfast is all carbs. No fruit on the first day but on Saturday there were apples and oranges. The person that said you get what you pay for was exactly right. Every room seems to have different amenities. The bed was clean. The dresser and bathroom counter tops were very nice. The room was a nice size.The BAD:  Housekeeping needs to step it up a bit. Carpets appeared fairly clean and bathroom was nice except for the dirty bath tub. There were long strands of hair in the tub when I arrived and it appeared it hadn’t been scrubbed in a long time. Don’t ever think about giving a child a bath in that tub. There was coffee (I think) spilt down the wall and not cleaned; there was a dirty ironing board but no iron. I didn’t even realize I had a refrigerator until I was there for about 12 hours. The knobs were missing on the cabinet and I just thought it was more drawers. The refrigerator stopped working sometime during the night and there was water all over the bottom of the cabinet. The long mirror had hand prints all over it and the foot stool was badly worn and was sun faded. The sheets had holes in them and the alarm clock didn’t work. I asked for it to be replaced but don’t think that happened. It would make a very strange loud noise about every half hour and then the clock would start blinking. HBO was down at least 80% of the time.Safety  - I’d be careful. In 24 hours I saw police twice on or near the premises attending to people on the street or hotel.It met my needs while I waited for my family but it deserves the two stars. It appears they made an effort to make things a little nicer. They just need to follow through and housekeeping needs to step it up and pay closer attention to doing a good cleaning.If you like watching planes come in and leave, they were very close, but the noise wasn't too bad. It was kind of interesting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r257795917-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257795917</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Dump In Kenner</t>
+  </si>
+  <si>
+    <t>This hotel is very run-down. The furniture in our hotel room was wicker and one of the two chairs has a hole in the back-rest. The electrical outlets were old and outdated ~ thank good we didn't get electrocuted. The bathroom area is extremely old &amp; small and needs a major overhaul. The room was large and has a table and two chairs that needs to be thrown-out and replaced. Has a large TV and window and was quiet except for the airplanes going by; the airport is quite close and the take off area is next to the hotel as you can see the planes just moments after they take off. The pool area looked quite nice with coloured lights, but we didn't go in as it was too cold of weather. They serve a continental breakfast served in their lobby.The hotel is near restaurants, gas stations and freeway access. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very run-down. The furniture in our hotel room was wicker and one of the two chairs has a hole in the back-rest. The electrical outlets were old and outdated ~ thank good we didn't get electrocuted. The bathroom area is extremely old &amp; small and needs a major overhaul. The room was large and has a table and two chairs that needs to be thrown-out and replaced. Has a large TV and window and was quiet except for the airplanes going by; the airport is quite close and the take off area is next to the hotel as you can see the planes just moments after they take off. The pool area looked quite nice with coloured lights, but we didn't go in as it was too cold of weather. They serve a continental breakfast served in their lobby.The hotel is near restaurants, gas stations and freeway access. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r256614858-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>256614858</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Not perfect, but worth the money.</t>
+  </si>
+  <si>
+    <t>I've stayed here several times for business &amp; family visits.Good value, rooms have been a bit rundown, but there have been lots of renovations in progress during my last visit, so I'm hopeful.Staff has always been helpful if I have a complaint.I'll be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r256512000-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>256512000</t>
+  </si>
+  <si>
+    <t>DON'T STAY!!!!</t>
+  </si>
+  <si>
+    <t>We were in town for a funeral. Location was close to where we needed to be. I have stayed in plenty of low priced hotels. This one is a no stayer again. Room was not cleaned. In my parents room the phone nor the coffee pot worked. Hair all in my bath tub the night stand and table had food left on it. The dresser had the sticky label off someone's paints still on it. The ceiling was pealing off. Very Noisy. Continental breakfast sucked. My room was not cleaned one day out of the 3 I was there housekeeping only left towels and never touched my room.  I will definitely NOT stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for a funeral. Location was close to where we needed to be. I have stayed in plenty of low priced hotels. This one is a no stayer again. Room was not cleaned. In my parents room the phone nor the coffee pot worked. Hair all in my bath tub the night stand and table had food left on it. The dresser had the sticky label off someone's paints still on it. The ceiling was pealing off. Very Noisy. Continental breakfast sucked. My room was not cleaned one day out of the 3 I was there housekeeping only left towels and never touched my room.  I will definitely NOT stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r248193033-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>248193033</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>It is OK to stay at this hotel during winter.</t>
+  </si>
+  <si>
+    <t>Despite of several "bad" reviews, I tried my luck by making a reservation at this hotel. Here are my pros and cons.Pros- Location, location, location - It locates close by to the airport, making it easy for us to fill up the gas and return our rental car at the airport.- The security of the hotel seems to be O.K.- The breakfast is good for the price we have paidCons- Big con is there is no cleaning of our room for the second night.- The room is a bit old</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r247153096-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247153096</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>EconoRob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please stay someplace else!!!Room 344 does not have a working lock.  There during sugar bowl week.  We originally stayed at Federal Inn &amp; Suites  and had no problems there.  Decided to extend stay.  Federal was booked so had to find other options.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r243228492-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>243228492</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Still not so good....</t>
+  </si>
+  <si>
+    <t>This my second time to stay here.The room was NOT clean. I stay in a lot of hotels. I am not that picky but this has been one of the worst as far as cleanliness. There was ALOT of "hairs" in tub and shower curtain. The bed was hardly made and the windows were full of mold. The room is big enough. The tv is a flatscreen and in great condition. Eveything worked. It just wasn't clean. The breakfast was on the minimal side. There was no fruit, peanut butter or cream cheese. There is couple of choices of cereal and some bread. There is the usual waffle making set up. The clerks were full of smiles and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>This my second time to stay here.The room was NOT clean. I stay in a lot of hotels. I am not that picky but this has been one of the worst as far as cleanliness. There was ALOT of "hairs" in tub and shower curtain. The bed was hardly made and the windows were full of mold. The room is big enough. The tv is a flatscreen and in great condition. Eveything worked. It just wasn't clean. The breakfast was on the minimal side. There was no fruit, peanut butter or cream cheese. There is couple of choices of cereal and some bread. There is the usual waffle making set up. The clerks were full of smiles and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r242545127-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>242545127</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Good motel</t>
+  </si>
+  <si>
+    <t>I booked this place for my family during graduation weekend in May. This Econo Lodge is fairly comfortable, has a continental breakfast (while standard, this is a must for me when booking a motel), and has a staff that treated us with respect; I can't speak for other people's treatment with certain staff members. Outside of our stay (we were here for 3 nights/4 days), this lodge is centrally located within walking distance next to multiple eateries, which is a big deal for my family and for many others. Very reasonably priced as well. Two major downsides are that: (1) the place comes in standard motel layout with outdoor entrances; and (2) its a little drive to New Orleans proper (still, when accounting for crime in New Orleans proper, that may not be such a bad thing). Reading through some of these reviews, I'm very perplexed by some of the criticism. Seriously, a motel is not required to supply toothpaste and toothbrushes! Some reviewers must have thought they booked the Four Seasons.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I booked this place for my family during graduation weekend in May. This Econo Lodge is fairly comfortable, has a continental breakfast (while standard, this is a must for me when booking a motel), and has a staff that treated us with respect; I can't speak for other people's treatment with certain staff members. Outside of our stay (we were here for 3 nights/4 days), this lodge is centrally located within walking distance next to multiple eateries, which is a big deal for my family and for many others. Very reasonably priced as well. Two major downsides are that: (1) the place comes in standard motel layout with outdoor entrances; and (2) its a little drive to New Orleans proper (still, when accounting for crime in New Orleans proper, that may not be such a bad thing). Reading through some of these reviews, I'm very perplexed by some of the criticism. Seriously, a motel is not required to supply toothpaste and toothbrushes! Some reviewers must have thought they booked the Four Seasons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r241164859-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>241164859</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Manager Paul is nasty, terrible human being!</t>
+  </si>
+  <si>
+    <t>Besides being close to the airport and across the street from the gas station, that's the only positive I can think about.
+This hotel and the majority of its staff have no clue about good customer service whatsoever, the evening young lady was helpful though.
+The morning of my arrival I called and spoke to Blad who ballfaced lied to me, telling me "there's no rooms ready until tonight..", while he was speaking his mannerisms made me believe he had been drinking after he was stammering his words, he became biligerant and nasty hanging up on me, because I asked him a simple question "have you been drinking?"
+COming into the hotel 2 hours later I had no problem whatsoever checking into my room, whereby the 1st room (135) was being refurbished, with fresh paint on the door, then housekeeper came into lobby area to tell clerk, about at least 6 different rooms ready to go, so therefore clearly there were rooms, why was I lied to?
+Called several hours later to speak to the supposed "general manager" Paul Patel, who immediately starts taking the side of his staff, and blaming me for being hung up on, because I asked him if he was drinking.   WHy get defensive unless it's the truth.   Than he basically hung up on me too!
+Paid $58, which I felt was way too much for this property, my room 142 the ceiling was peeling off,...Besides being close to the airport and across the street from the gas station, that's the only positive I can think about.This hotel and the majority of its staff have no clue about good customer service whatsoever, the evening young lady was helpful though.The morning of my arrival I called and spoke to Blad who ballfaced lied to me, telling me "there's no rooms ready until tonight..", while he was speaking his mannerisms made me believe he had been drinking after he was stammering his words, he became biligerant and nasty hanging up on me, because I asked him a simple question "have you been drinking?"COming into the hotel 2 hours later I had no problem whatsoever checking into my room, whereby the 1st room (135) was being refurbished, with fresh paint on the door, then housekeeper came into lobby area to tell clerk, about at least 6 different rooms ready to go, so therefore clearly there were rooms, why was I lied to?Called several hours later to speak to the supposed "general manager" Paul Patel, who immediately starts taking the side of his staff, and blaming me for being hung up on, because I asked him if he was drinking.   WHy get defensive unless it's the truth.   Than he basically hung up on me too!Paid $58, which I felt was way too much for this property, my room 142 the ceiling was peeling off, and bubbled in spots, bathroom wasn't too clean, bed was comfortable, and nice big plasma tv, but no refrigerator or microwave.The only breakfast in the morning offered is waffles, dry cereal and watered down juice.   Not a huge selection.I've stayed at worse but had much better treatment elsewhere.   This hotel fell short of both.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Besides being close to the airport and across the street from the gas station, that's the only positive I can think about.
+This hotel and the majority of its staff have no clue about good customer service whatsoever, the evening young lady was helpful though.
+The morning of my arrival I called and spoke to Blad who ballfaced lied to me, telling me "there's no rooms ready until tonight..", while he was speaking his mannerisms made me believe he had been drinking after he was stammering his words, he became biligerant and nasty hanging up on me, because I asked him a simple question "have you been drinking?"
+COming into the hotel 2 hours later I had no problem whatsoever checking into my room, whereby the 1st room (135) was being refurbished, with fresh paint on the door, then housekeeper came into lobby area to tell clerk, about at least 6 different rooms ready to go, so therefore clearly there were rooms, why was I lied to?
+Called several hours later to speak to the supposed "general manager" Paul Patel, who immediately starts taking the side of his staff, and blaming me for being hung up on, because I asked him if he was drinking.   WHy get defensive unless it's the truth.   Than he basically hung up on me too!
+Paid $58, which I felt was way too much for this property, my room 142 the ceiling was peeling off,...Besides being close to the airport and across the street from the gas station, that's the only positive I can think about.This hotel and the majority of its staff have no clue about good customer service whatsoever, the evening young lady was helpful though.The morning of my arrival I called and spoke to Blad who ballfaced lied to me, telling me "there's no rooms ready until tonight..", while he was speaking his mannerisms made me believe he had been drinking after he was stammering his words, he became biligerant and nasty hanging up on me, because I asked him a simple question "have you been drinking?"COming into the hotel 2 hours later I had no problem whatsoever checking into my room, whereby the 1st room (135) was being refurbished, with fresh paint on the door, then housekeeper came into lobby area to tell clerk, about at least 6 different rooms ready to go, so therefore clearly there were rooms, why was I lied to?Called several hours later to speak to the supposed "general manager" Paul Patel, who immediately starts taking the side of his staff, and blaming me for being hung up on, because I asked him if he was drinking.   WHy get defensive unless it's the truth.   Than he basically hung up on me too!Paid $58, which I felt was way too much for this property, my room 142 the ceiling was peeling off, and bubbled in spots, bathroom wasn't too clean, bed was comfortable, and nice big plasma tv, but no refrigerator or microwave.The only breakfast in the morning offered is waffles, dry cereal and watered down juice.   Not a huge selection.I've stayed at worse but had much better treatment elsewhere.   This hotel fell short of both.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r239872841-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>239872841</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Not good at all!</t>
+  </si>
+  <si>
+    <t>I had to stay here because my car broke down just a mile or so away. Rate was fine, but when I asked for toothbrush, toothpaste, etc. they had nothing but toothpaste only! Really no toothbrush? Only room they "said" was left was a smoking room even though when I made reservation earlier in day they told me a nonsmoking room was available. The room was OK, but the breakfast was not that great. Staff was horrible and not helpful at all save for one lady who worked morning shift the day my car broke down. All the men that work the front desk have no idea what customer service is. Never want to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had to stay here because my car broke down just a mile or so away. Rate was fine, but when I asked for toothbrush, toothpaste, etc. they had nothing but toothpaste only! Really no toothbrush? Only room they "said" was left was a smoking room even though when I made reservation earlier in day they told me a nonsmoking room was available. The room was OK, but the breakfast was not that great. Staff was horrible and not helpful at all save for one lady who worked morning shift the day my car broke down. All the men that work the front desk have no idea what customer service is. Never want to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r239714146-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>239714146</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Close to airport</t>
+  </si>
+  <si>
+    <t>Very close (5 minutes) to msy. Several restaurants and c-stores nearby. Go to Chef Rons Gumbo stop. Grounds are dirty, however, my room was clean. You get what you pay for. There is a park (Susan) nearby for the kids to unwind.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r218633228-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>218633228</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Poor Housekeeping</t>
+  </si>
+  <si>
+    <t>Reserved this room online for $71.49/night. Upon arrival, we checked in with no problem. The first room we received, on the 3rd floor, was locked from the inside. We had to tote all of our baggage back downstairs to get another room. On the second try, we got a room that was located on the 2nd floor. Upon entering the room, there were roaches in the room, in the window area and crawling on the wall behind the room door. the air was nt working. There was a huge stain in the chair that resembled blood, but due to the fact that the chair was old and dingy, you really couldn't tell what the stain was. We didnt even get a chance to check out the bathroom due to the bug situation. After contacting the front desk a second time, we got a refund and was told to go soemwhere else. Will never book with this particular hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Reserved this room online for $71.49/night. Upon arrival, we checked in with no problem. The first room we received, on the 3rd floor, was locked from the inside. We had to tote all of our baggage back downstairs to get another room. On the second try, we got a room that was located on the 2nd floor. Upon entering the room, there were roaches in the room, in the window area and crawling on the wall behind the room door. the air was nt working. There was a huge stain in the chair that resembled blood, but due to the fact that the chair was old and dingy, you really couldn't tell what the stain was. We didnt even get a chance to check out the bathroom due to the bug situation. After contacting the front desk a second time, we got a refund and was told to go soemwhere else. Will never book with this particular hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r213700096-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>213700096</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Previous posts Dead On!</t>
+  </si>
+  <si>
+    <t>It's $60 a night.  Average for the area is $120.  That should have told me to stay away but It's close to the airport and I needed 5-6 hours sleep before catching a flight.  Didn't get any sleep.  The AC didn't work and New Orleans in July is HOT!  Complaining or asking for another room was like talking to a brick wall.  Response was maintenance would be in at 9 am and take a look at it. Beds were hard, carpet was filthy, constant party outside.  My guess is most of the people who stay there are on weekly rates, panhandle during the day and party at night.  Staff?  Rude doesn't come close.  Cleanliness? Sewers are cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's $60 a night.  Average for the area is $120.  That should have told me to stay away but It's close to the airport and I needed 5-6 hours sleep before catching a flight.  Didn't get any sleep.  The AC didn't work and New Orleans in July is HOT!  Complaining or asking for another room was like talking to a brick wall.  Response was maintenance would be in at 9 am and take a look at it. Beds were hard, carpet was filthy, constant party outside.  My guess is most of the people who stay there are on weekly rates, panhandle during the day and party at night.  Staff?  Rude doesn't come close.  Cleanliness? Sewers are cleaner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r207742627-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207742627</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>The Worst Hotel I've Ever Stayed In</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Southwest Airlines as a "partner" hotel because I would get points and I figured Southwest wouldn't work with any hotels that were this bad.  Since I was only staying a few hours (I was getting in around I :30 am and leaving at 7 am) I didn't really need a lot of amenities, just a place to sleep for a few hours, The outside of the hotel, parking lot and entryway didn't look very clean with trash around and the garbage cans outside the entrance overflowing.  My room was on the third floor and there was one room that had what seemed to be their whole wardrobe hanging out on the balcony to dry.  We're not talking about a couple of towels and a swim suit, we're talking WASH DAY, On the walkway to the room we passed a spot where it looked like they had butchered a pig or had a knife fight.  What looked like dried blood on the sidewalk anyway.  The a/c in the room DID NOT work. It blew air but it wasn't cool air.  I pulled the bedspread off the bed and put it on the floor before I went to sleep because I didn't want it anywhere near me.  If it hadn't been the middle of the night I think I would've tried to find another place to stay. To end on the worst possible note, when I got...I booked this hotel through Southwest Airlines as a "partner" hotel because I would get points and I figured Southwest wouldn't work with any hotels that were this bad.  Since I was only staying a few hours (I was getting in around I :30 am and leaving at 7 am) I didn't really need a lot of amenities, just a place to sleep for a few hours, The outside of the hotel, parking lot and entryway didn't look very clean with trash around and the garbage cans outside the entrance overflowing.  My room was on the third floor and there was one room that had what seemed to be their whole wardrobe hanging out on the balcony to dry.  We're not talking about a couple of towels and a swim suit, we're talking WASH DAY, On the walkway to the room we passed a spot where it looked like they had butchered a pig or had a knife fight.  What looked like dried blood on the sidewalk anyway.  The a/c in the room DID NOT work. It blew air but it wasn't cool air.  I pulled the bedspread off the bed and put it on the floor before I went to sleep because I didn't want it anywhere near me.  If it hadn't been the middle of the night I think I would've tried to find another place to stay. To end on the worst possible note, when I got out of the bed the next morning I looked over and saw a bedbug crawling on the blanket. I captured the bug in a cup and gave it to the front desk. I work at a large residence hall of a major university and have been trained to recognize bedbugs and there is no doubt that this is what the bug was.  I would not recommend this place to my worst enemy and this place has moved up to the #1 spot for worst hotel I ever stayed at in my life.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Southwest Airlines as a "partner" hotel because I would get points and I figured Southwest wouldn't work with any hotels that were this bad.  Since I was only staying a few hours (I was getting in around I :30 am and leaving at 7 am) I didn't really need a lot of amenities, just a place to sleep for a few hours, The outside of the hotel, parking lot and entryway didn't look very clean with trash around and the garbage cans outside the entrance overflowing.  My room was on the third floor and there was one room that had what seemed to be their whole wardrobe hanging out on the balcony to dry.  We're not talking about a couple of towels and a swim suit, we're talking WASH DAY, On the walkway to the room we passed a spot where it looked like they had butchered a pig or had a knife fight.  What looked like dried blood on the sidewalk anyway.  The a/c in the room DID NOT work. It blew air but it wasn't cool air.  I pulled the bedspread off the bed and put it on the floor before I went to sleep because I didn't want it anywhere near me.  If it hadn't been the middle of the night I think I would've tried to find another place to stay. To end on the worst possible note, when I got...I booked this hotel through Southwest Airlines as a "partner" hotel because I would get points and I figured Southwest wouldn't work with any hotels that were this bad.  Since I was only staying a few hours (I was getting in around I :30 am and leaving at 7 am) I didn't really need a lot of amenities, just a place to sleep for a few hours, The outside of the hotel, parking lot and entryway didn't look very clean with trash around and the garbage cans outside the entrance overflowing.  My room was on the third floor and there was one room that had what seemed to be their whole wardrobe hanging out on the balcony to dry.  We're not talking about a couple of towels and a swim suit, we're talking WASH DAY, On the walkway to the room we passed a spot where it looked like they had butchered a pig or had a knife fight.  What looked like dried blood on the sidewalk anyway.  The a/c in the room DID NOT work. It blew air but it wasn't cool air.  I pulled the bedspread off the bed and put it on the floor before I went to sleep because I didn't want it anywhere near me.  If it hadn't been the middle of the night I think I would've tried to find another place to stay. To end on the worst possible note, when I got out of the bed the next morning I looked over and saw a bedbug crawling on the blanket. I captured the bug in a cup and gave it to the front desk. I work at a large residence hall of a major university and have been trained to recognize bedbugs and there is no doubt that this is what the bug was.  I would not recommend this place to my worst enemy and this place has moved up to the #1 spot for worst hotel I ever stayed at in my life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r202845719-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>202845719</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Clean room and everything worked.Paid $65.00 total one night with travel coupon.</t>
+  </si>
+  <si>
+    <t>Stayed in room-139..Paid $65.00 Total with travel coupon.Management was just fine no problems..Room was kingbed with lots of pillows.New carpet and paint,2 night stands and desk.Flat screen tv..Needs a new shower head.The room had refrigerator and microwave worked fine.outside the room every thing was clean.The exterior court yard was clean and pool was clean.Night lighting was good and parking was was clean.There is room for trucks pulling rv campers or 30' foot hot shot trailers.If you have a trailer better call ahead.This hotel is next to the airport so ask for a room on 1st floor near the office.Breakfast was the usual.I've been here 4 times so I know what to expect..No bugs that I could see..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Stayed in room-139..Paid $65.00 Total with travel coupon.Management was just fine no problems..Room was kingbed with lots of pillows.New carpet and paint,2 night stands and desk.Flat screen tv..Needs a new shower head.The room had refrigerator and microwave worked fine.outside the room every thing was clean.The exterior court yard was clean and pool was clean.Night lighting was good and parking was was clean.There is room for trucks pulling rv campers or 30' foot hot shot trailers.If you have a trailer better call ahead.This hotel is next to the airport so ask for a room on 1st floor near the office.Breakfast was the usual.I've been here 4 times so I know what to expect..No bugs that I could see..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r200815470-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200815470</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Terrible, we will never stay here again</t>
+  </si>
+  <si>
+    <t>Upon getting in the room the evening we checked in we noticed the ac didn't work.  Through out the night it kept making clanking noises which made it hard to sleep.  The next morning taking a shower for 2 min the hot water ran out and didn't return.  The lighting is terrible.  The sink was filthy like someone who stayed before us shaved and house keeping refused to do their job.  Like the title says we will never stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r196400260-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196400260</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>Horrible experience!</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for 5 nights during Mardi Gras. If possible, I would have checked out after first night however due to Mardi Gras all other properties were fully booked. When I first arrived on 2/28/2014, I noticed a considerable amount of broken glass in the parking lot next to a parked car. When I asked the clerk if there had been a car break-in, he had no knowledge and seemed unconcerned about the glass hazard. I discovered upon entering the room the air conditioner did not work - the controls were broken. This was not a problem until the weather turned cold 2 days later and we had no heat. When I contacted the desk late in the afternoon I was told no one was available to address the problem until 9:00 next morning. They could not move us to another room because they were totally booked. Finally on the fourth day we were moved to another room only to discover that the electrical power kept going off. An employee came and examined the circuit breakers and said if was fixed. Wrong! When we returned to the room at 7:30 p.m. - no power once again. This hotel is in desperate need of painting and cleaning - very well-worn.  I noticed litter in the parking lot (fast food containers) which remained there for 2 full days. Extremely disappointed with this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for 5 nights during Mardi Gras. If possible, I would have checked out after first night however due to Mardi Gras all other properties were fully booked. When I first arrived on 2/28/2014, I noticed a considerable amount of broken glass in the parking lot next to a parked car. When I asked the clerk if there had been a car break-in, he had no knowledge and seemed unconcerned about the glass hazard. I discovered upon entering the room the air conditioner did not work - the controls were broken. This was not a problem until the weather turned cold 2 days later and we had no heat. When I contacted the desk late in the afternoon I was told no one was available to address the problem until 9:00 next morning. They could not move us to another room because they were totally booked. Finally on the fourth day we were moved to another room only to discover that the electrical power kept going off. An employee came and examined the circuit breakers and said if was fixed. Wrong! When we returned to the room at 7:30 p.m. - no power once again. This hotel is in desperate need of painting and cleaning - very well-worn.  I noticed litter in the parking lot (fast food containers) which remained there for 2 full days. Extremely disappointed with this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r189380443-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>189380443</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Coakroaches!</t>
+  </si>
+  <si>
+    <t>At first we gormt a room with 3 dead coakroaches in the corner, together with lots of hair and dust. The coffee table was covered in sticky browny coffee stain. The plasma tv had no channels at all. When we asked for a different room, we got the cleaner one, but the water in the bathroom smelled like an old egg and sulphur. Econo lodge- never again, it is worse than a squat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Parag P, Manager at Econo Lodge, responded to this reviewResponded January 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2014</t>
+  </si>
+  <si>
+    <t>At first we gormt a room with 3 dead coakroaches in the corner, together with lots of hair and dust. The coffee table was covered in sticky browny coffee stain. The plasma tv had no channels at all. When we asked for a different room, we got the cleaner one, but the water in the bathroom smelled like an old egg and sulphur. Econo lodge- never again, it is worse than a squat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r186105109-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>186105109</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Good, clean hotel...</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel last year in September for a week. It was fine. McDonalds half a block away, Sports Bar across the Main road. No airport shuttle. $16 taxi ride and yet so close. Room was clean, bathroom was clean, WiFi was okay and bed was fine. I would stay here again.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r184422428-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184422428</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>I won't stay here again!  Nasty!!!</t>
+  </si>
+  <si>
+    <t>Got here last minute looking for a room. The girl that works nites at the desk is nice. That was the only thing nice.The Indian guy that works days acts mentally slow-like and walks around farting and laughing about it. The continental breakfast and the area was too nasty for me to eat.  The room smelled musty and was old and not taken care of.  The place is not clean. Even the furniture and bed spread was dirty .  I slept fully dressed because I didn't want anything next to my skin.  I think that it is run by a bunch of Indians that are too cheap to put money into keeping it up. There is no wifi in the rooms. it was #14 on trip advisor out of 15 .  I looked at 15 too... It was even worse.  All the good hotels were booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got here last minute looking for a room. The girl that works nites at the desk is nice. That was the only thing nice.The Indian guy that works days acts mentally slow-like and walks around farting and laughing about it. The continental breakfast and the area was too nasty for me to eat.  The room smelled musty and was old and not taken care of.  The place is not clean. Even the furniture and bed spread was dirty .  I slept fully dressed because I didn't want anything next to my skin.  I think that it is run by a bunch of Indians that are too cheap to put money into keeping it up. There is no wifi in the rooms. it was #14 on trip advisor out of 15 .  I looked at 15 too... It was even worse.  All the good hotels were booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r177434017-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>177434017</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Not bad for the money. Clean enough, but outdated. For the price, good location to stay just outside of New Orleans. Clean pool, good service and much better than some of the other places we stayed on this trip!</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r177288068-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>177288068</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>See what else u can find for $66</t>
+  </si>
+  <si>
+    <t>I should've immediately asked for a refund and jumped back in the car to scout for another motel...however hubby was tired and ready to simply relax so I took one for the team - since it's for one night only. But wow, the bathtub had stains and u could tell it had not been cleaned (toilet and sink counter cleaned &amp; "appealing"). Dead insects on the window seal, old &amp; overly worn comforter on the bed, overly used/thin wash/hand towels, etc. In fairness it's doable if ur a person who has "ruffed" it before, but I would not stay here more than 24 hrs! Oh yeah, &lt;1 mi to the airport, free wireless, cable, nice tv, location close to eateries, stores, gas stations...AND OTHER MOTELS/HOTELS. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>I should've immediately asked for a refund and jumped back in the car to scout for another motel...however hubby was tired and ready to simply relax so I took one for the team - since it's for one night only. But wow, the bathtub had stains and u could tell it had not been cleaned (toilet and sink counter cleaned &amp; "appealing"). Dead insects on the window seal, old &amp; overly worn comforter on the bed, overly used/thin wash/hand towels, etc. In fairness it's doable if ur a person who has "ruffed" it before, but I would not stay here more than 24 hrs! Oh yeah, &lt;1 mi to the airport, free wireless, cable, nice tv, location close to eateries, stores, gas stations...AND OTHER MOTELS/HOTELS. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r164005100-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>164005100</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Terrible and Hot, Do Not Book Here! And yes, I am shouting that!</t>
+  </si>
+  <si>
+    <t>We screwed up. We rented for a week without checking the reviews and looking at the room. We were tired from being on the road. The first room we checked in to, was demolished. I posted a picture, mattresses turned over, and a bug fogger on the floor. The bathroom was dirty with trash left on the counter. The toilet tank top was not in the bathroom, it was out in the floor. They moved us to another room that was poor to say the least. It was hot inside of the room, as it was a corner room. By morning, the room had cooled off some. We had them move us to another room. Bedding in very bad shape, carpet filthy, desk chair wore out. It gets very hot in here during the afternoon and evening. My wife asked and the manager(?) came up, and he said he can't help it if it is hot outside. He stated it was our fault for booking a room on the top floor. Umm, well, we were not asked if we had a preference!
+ The staff is rude, and not helpful at all. Cleaning? NOT. Wife has to go get towels when we want clean ones! Looks like I will be in the NOLA area for a while this summer. Definitely moving out when rent is up. Sleeping under a busy bridge may be better! Also, if you want to use the...We screwed up. We rented for a week without checking the reviews and looking at the room. We were tired from being on the road. The first room we checked in to, was demolished. I posted a picture, mattresses turned over, and a bug fogger on the floor. The bathroom was dirty with trash left on the counter. The toilet tank top was not in the bathroom, it was out in the floor. They moved us to another room that was poor to say the least. It was hot inside of the room, as it was a corner room. By morning, the room had cooled off some. We had them move us to another room. Bedding in very bad shape, carpet filthy, desk chair wore out. It gets very hot in here during the afternoon and evening. My wife asked and the manager(?) came up, and he said he can't help it if it is hot outside. He stated it was our fault for booking a room on the top floor. Umm, well, we were not asked if we had a preference! The staff is rude, and not helpful at all. Cleaning? NOT. Wife has to go get towels when we want clean ones! Looks like I will be in the NOLA area for a while this summer. Definitely moving out when rent is up. Sleeping under a busy bridge may be better! Also, if you want to use the pool, you have to wait for all of the friends and family of the staff to clear out!!!!DO NOT RENT FROM THIS PROPERTYMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We screwed up. We rented for a week without checking the reviews and looking at the room. We were tired from being on the road. The first room we checked in to, was demolished. I posted a picture, mattresses turned over, and a bug fogger on the floor. The bathroom was dirty with trash left on the counter. The toilet tank top was not in the bathroom, it was out in the floor. They moved us to another room that was poor to say the least. It was hot inside of the room, as it was a corner room. By morning, the room had cooled off some. We had them move us to another room. Bedding in very bad shape, carpet filthy, desk chair wore out. It gets very hot in here during the afternoon and evening. My wife asked and the manager(?) came up, and he said he can't help it if it is hot outside. He stated it was our fault for booking a room on the top floor. Umm, well, we were not asked if we had a preference!
+ The staff is rude, and not helpful at all. Cleaning? NOT. Wife has to go get towels when we want clean ones! Looks like I will be in the NOLA area for a while this summer. Definitely moving out when rent is up. Sleeping under a busy bridge may be better! Also, if you want to use the...We screwed up. We rented for a week without checking the reviews and looking at the room. We were tired from being on the road. The first room we checked in to, was demolished. I posted a picture, mattresses turned over, and a bug fogger on the floor. The bathroom was dirty with trash left on the counter. The toilet tank top was not in the bathroom, it was out in the floor. They moved us to another room that was poor to say the least. It was hot inside of the room, as it was a corner room. By morning, the room had cooled off some. We had them move us to another room. Bedding in very bad shape, carpet filthy, desk chair wore out. It gets very hot in here during the afternoon and evening. My wife asked and the manager(?) came up, and he said he can't help it if it is hot outside. He stated it was our fault for booking a room on the top floor. Umm, well, we were not asked if we had a preference! The staff is rude, and not helpful at all. Cleaning? NOT. Wife has to go get towels when we want clean ones! Looks like I will be in the NOLA area for a while this summer. Definitely moving out when rent is up. Sleeping under a busy bridge may be better! Also, if you want to use the pool, you have to wait for all of the friends and family of the staff to clear out!!!!DO NOT RENT FROM THIS PROPERTYMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r163192920-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>163192920</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>Better than the reviews suggest</t>
+  </si>
+  <si>
+    <t>Myself and a friend from the UK stayed here for one night and were a little concerned about other review's however thought we would make up our own mind.The rooms were clean / good value for money and Paul - the manager was outstanding and couldn't do enough to help.I travel regularly in the US and this hotel is absolutely fine.Definitely recommend for the money.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r162615994-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>162615994</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>dated, in need of facelift</t>
+  </si>
+  <si>
+    <t>After traveling from Myrtle Beach, SC we arrived at a tired looking building. Check in was fast and easy. We we got to our room it was a fair size but it was apparent that the carpets were very dirty, the furniture was old and dirty and we tried not to think of what the comforter on the bed may have. Bathroom was clean. We went down to the pool and really noticed that the hotel is being let go, perhaps it is the managers. There must have been a sale on the paint as the whole courtyard including railings on the above floors were all the same color. Maintenance in the pool area and courtyard was nearly none existent.  I f you have an alternate destination I would suggest you take it. For a one night stay for the airport in the morning , I think it would suffice?MoreShow less</t>
+  </si>
+  <si>
+    <t>After traveling from Myrtle Beach, SC we arrived at a tired looking building. Check in was fast and easy. We we got to our room it was a fair size but it was apparent that the carpets were very dirty, the furniture was old and dirty and we tried not to think of what the comforter on the bed may have. Bathroom was clean. We went down to the pool and really noticed that the hotel is being let go, perhaps it is the managers. There must have been a sale on the paint as the whole courtyard including railings on the above floors were all the same color. Maintenance in the pool area and courtyard was nearly none existent.  I f you have an alternate destination I would suggest you take it. For a one night stay for the airport in the morning , I think it would suffice?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r160194377-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>160194377</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Really Bad</t>
+  </si>
+  <si>
+    <t>I was hesitant to book this hotel based on some of the reviews, but everything else was sold out or really expensive for just one night.  I booked it through the Choice toll-free number and when I voiced my concerns the represenative said "Choice Hotels does not have any bad hotels in it's chain" so I gave him green light!  Well it was a really bad experience and one that I regret.  Even for the amount of money paid it was not a good value, I have stayed at real dives in the past, but this one is takes the cake!  The posting about the roaches is true.  That's the first thing I saw, giant roaches dead on the way into the front desk, and also some by the room doors and on the "path" to my room.  The room smelled of stale liquor and smole, it had really old bedding, torn carpet, dirt, dust all over!  Housekepping is abviously not a concern here.  The area is close to the airport, and across from a nice mall with Macy's and such, however, the crowd that was in the lobby and hagging out by pool looked more like drug dealers, junkies and prostitutes!  The breakfast was a joke.....the place was filthy - no fruit, milk was gone, no napkins, no forks, cereal spilled all over, no syrup for the waffles (one waffle maker for 6 people waiting in line) we bolted...I was hesitant to book this hotel based on some of the reviews, but everything else was sold out or really expensive for just one night.  I booked it through the Choice toll-free number and when I voiced my concerns the represenative said "Choice Hotels does not have any bad hotels in it's chain" so I gave him green light!  Well it was a really bad experience and one that I regret.  Even for the amount of money paid it was not a good value, I have stayed at real dives in the past, but this one is takes the cake!  The posting about the roaches is true.  That's the first thing I saw, giant roaches dead on the way into the front desk, and also some by the room doors and on the "path" to my room.  The room smelled of stale liquor and smole, it had really old bedding, torn carpet, dirt, dust all over!  Housekepping is abviously not a concern here.  The area is close to the airport, and across from a nice mall with Macy's and such, however, the crowd that was in the lobby and hagging out by pool looked more like drug dealers, junkies and prostitutes!  The breakfast was a joke.....the place was filthy - no fruit, milk was gone, no napkins, no forks, cereal spilled all over, no syrup for the waffles (one waffle maker for 6 people waiting in line) we bolted and will never go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I was hesitant to book this hotel based on some of the reviews, but everything else was sold out or really expensive for just one night.  I booked it through the Choice toll-free number and when I voiced my concerns the represenative said "Choice Hotels does not have any bad hotels in it's chain" so I gave him green light!  Well it was a really bad experience and one that I regret.  Even for the amount of money paid it was not a good value, I have stayed at real dives in the past, but this one is takes the cake!  The posting about the roaches is true.  That's the first thing I saw, giant roaches dead on the way into the front desk, and also some by the room doors and on the "path" to my room.  The room smelled of stale liquor and smole, it had really old bedding, torn carpet, dirt, dust all over!  Housekepping is abviously not a concern here.  The area is close to the airport, and across from a nice mall with Macy's and such, however, the crowd that was in the lobby and hagging out by pool looked more like drug dealers, junkies and prostitutes!  The breakfast was a joke.....the place was filthy - no fruit, milk was gone, no napkins, no forks, cereal spilled all over, no syrup for the waffles (one waffle maker for 6 people waiting in line) we bolted...I was hesitant to book this hotel based on some of the reviews, but everything else was sold out or really expensive for just one night.  I booked it through the Choice toll-free number and when I voiced my concerns the represenative said "Choice Hotels does not have any bad hotels in it's chain" so I gave him green light!  Well it was a really bad experience and one that I regret.  Even for the amount of money paid it was not a good value, I have stayed at real dives in the past, but this one is takes the cake!  The posting about the roaches is true.  That's the first thing I saw, giant roaches dead on the way into the front desk, and also some by the room doors and on the "path" to my room.  The room smelled of stale liquor and smole, it had really old bedding, torn carpet, dirt, dust all over!  Housekepping is abviously not a concern here.  The area is close to the airport, and across from a nice mall with Macy's and such, however, the crowd that was in the lobby and hagging out by pool looked more like drug dealers, junkies and prostitutes!  The breakfast was a joke.....the place was filthy - no fruit, milk was gone, no napkins, no forks, cereal spilled all over, no syrup for the waffles (one waffle maker for 6 people waiting in line) we bolted and will never go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r157980055-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157980055</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Off-Limits Recommended!</t>
+  </si>
+  <si>
+    <t>This particular Econo Lodge was the worst Choice Hotel facility we have ever stayed over the relatively long duration of time we have focused on the Choice Hotel network. Perhaps foremost was the total lack of competent management for hours at a time. For example, the business center (sic!) was one computer with the printer behind the check-in desk. However, the most frustrating aspect for "travelers" was that although the Business Center stated in plain view a 15-minute limitation when others wanted access (to do no more than a 1-minute plane check-in/boarding pass function), the management stood by for a 3-hour period "condoning" the disrespectful behavior of one single individual that "owned" the computer in plain view of the management and/or motel employees. Other notable shortfalls included: a smoke-filler non-smoking room, a questionable relationship with the local cab service (that did not publish their rates as the vast majority of NOLA cab companies do, and the extraordinary pictures of the motel in their .pdf brochure that were nothing like the reality of this horrific motel! Just me! Bottom line: These Folks Really Stink It Up BigtimeMoreShow less</t>
+  </si>
+  <si>
+    <t>This particular Econo Lodge was the worst Choice Hotel facility we have ever stayed over the relatively long duration of time we have focused on the Choice Hotel network. Perhaps foremost was the total lack of competent management for hours at a time. For example, the business center (sic!) was one computer with the printer behind the check-in desk. However, the most frustrating aspect for "travelers" was that although the Business Center stated in plain view a 15-minute limitation when others wanted access (to do no more than a 1-minute plane check-in/boarding pass function), the management stood by for a 3-hour period "condoning" the disrespectful behavior of one single individual that "owned" the computer in plain view of the management and/or motel employees. Other notable shortfalls included: a smoke-filler non-smoking room, a questionable relationship with the local cab service (that did not publish their rates as the vast majority of NOLA cab companies do, and the extraordinary pictures of the motel in their .pdf brochure that were nothing like the reality of this horrific motel! Just me! Bottom line: These Folks Really Stink It Up BigtimeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r157519953-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157519953</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Just not clean</t>
+  </si>
+  <si>
+    <t>The Econo Lodge in Kenner is very close to the airport so it is convenient, and I've had pretty good luck with this line so I don't know what happened with this one. The bathroom sink had men's beard stubble in the sink - either the sink had not been cleaned at all, or the sink had backed up and this stubble floated back in. Either way, I couldn't even brush my teeth in that sink. Plus there was long black hairs on the bathroom floor, hair on the toilet, and the same long hair on the towels. The bed side table had rings on it - might have been stains/permanent but who knows. The grounds were very nice and the pool looked clean, but once you see a dirty sink, that pretty well "sinks" the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Econo Lodge in Kenner is very close to the airport so it is convenient, and I've had pretty good luck with this line so I don't know what happened with this one. The bathroom sink had men's beard stubble in the sink - either the sink had not been cleaned at all, or the sink had backed up and this stubble floated back in. Either way, I couldn't even brush my teeth in that sink. Plus there was long black hairs on the bathroom floor, hair on the toilet, and the same long hair on the towels. The bed side table had rings on it - might have been stains/permanent but who knows. The grounds were very nice and the pool looked clean, but once you see a dirty sink, that pretty well "sinks" the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r157363708-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157363708</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>ok for one night</t>
+  </si>
+  <si>
+    <t>After checking with several hotels on the  price, we decide to spent the night here. I have stay at this hotel years ago and at that time we stay on the ground floor. This time, we have to take a room on the 2nd Floor. We heard a lots of noise outside until late in the evening. Also, we have to kill a cockroach before we went to bed. I suppose for the price, it may be good for one night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r157020189-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157020189</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Ok for the price!</t>
+  </si>
+  <si>
+    <t>Coming to this hotel I was expecting it to be complete crap from reading all the reviews. It was OK to lay our heads there for a couple of days and the price was OK considering everything was way expensive around the time we were traveling. The pool was in the center of the hotel you could just walk out your door and see the kids playing in the pool which I liked. There is no jacuzzi it has a bunch of rocks filled in it. The staff was nice but I was upset that I couldn't get my AAA discount since no one knew how to put it in except the manager and he was never there. They have 3 levels, we stayed on the 2nd and the floors are not leveled at all!!! My aunt cant walk without a cane and every time she walked her cane was either slightly up and she was down or vice versa. Theres a drop down going into the elevator so if you have a ton of stuff and put it on the luggage handler, you have to push it down into the elevator and push up going out.The Continental Breakfast was OK but the waffles were horrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>Coming to this hotel I was expecting it to be complete crap from reading all the reviews. It was OK to lay our heads there for a couple of days and the price was OK considering everything was way expensive around the time we were traveling. The pool was in the center of the hotel you could just walk out your door and see the kids playing in the pool which I liked. There is no jacuzzi it has a bunch of rocks filled in it. The staff was nice but I was upset that I couldn't get my AAA discount since no one knew how to put it in except the manager and he was never there. They have 3 levels, we stayed on the 2nd and the floors are not leveled at all!!! My aunt cant walk without a cane and every time she walked her cane was either slightly up and she was down or vice versa. Theres a drop down going into the elevator so if you have a ton of stuff and put it on the luggage handler, you have to push it down into the elevator and push up going out.The Continental Breakfast was OK but the waffles were horrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r150444184-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>150444184</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Use travel coupon book for discount on room rate.</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night.Paid $61.00 total used coupon in travel book..The room I stayed in had king size bed good clean pillows and sheets,mattress was pillow top had a good nights rest..Located right off the I-10 freeway going into town exit 223 turn right hotel on corner next light on left..The room was clean with refrigerator,flat screen tv..The room had pleanty of lights and computer desk..The Wi-Fi was ok but kept dropping the signal..The airport is across the street expect to hear jets taking off until 9pm or 10pm.Outside paking is good with room for a few semi trucks when it's not busy..Parking ok for pickup with 30 foot trailers.The breakfast is the usual stuff but I've seen worse.Front desk said,coffee is 24hrs..Everything in the room worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night.Paid $61.00 total used coupon in travel book..The room I stayed in had king size bed good clean pillows and sheets,mattress was pillow top had a good nights rest..Located right off the I-10 freeway going into town exit 223 turn right hotel on corner next light on left..The room was clean with refrigerator,flat screen tv..The room had pleanty of lights and computer desk..The Wi-Fi was ok but kept dropping the signal..The airport is across the street expect to hear jets taking off until 9pm or 10pm.Outside paking is good with room for a few semi trucks when it's not busy..Parking ok for pickup with 30 foot trailers.The breakfast is the usual stuff but I've seen worse.Front desk said,coffee is 24hrs..Everything in the room worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r144828802-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>144828802</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>Nice basic hotel</t>
+  </si>
+  <si>
+    <t>Throughout our stay, the staff was professional and pleasant.Our room was clean and the interior was well maintained.The food for the complimentary breakfast was basic but decent.The hotel is conveniently located near the highway and major local roads.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r132543876-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>132543876</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Econo Lodge of Kenner</t>
+  </si>
+  <si>
+    <t>The front of the hotel is okay when you walk in but the room that we stayed in was musty and dark. It needs some updating. We were in need a room so we stayed here. It did the job but the area was a little rough looking. There is a Mcdonalds next door for some quick food.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r132331200-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>132331200</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>I do NOT plan to return here</t>
+  </si>
+  <si>
+    <t>I needed a place to sleep because my A/C quit, so I came here because it was a reasonable rate. Didn't care whether there was free breakfast or not because I go to work early, so I cannot comment on the breakfast. All I can say that the service was EXTREMELY RUDE. The man at the desk may not have said it, but his attitude showed that he could have cared less about whether I(or any customer) was happy or comfortable. I do not mean to sound prejudice, but certain nationalities need to realize that women are equal to men here in America. I felt like the man did not want to attend to my needs because I am a young woman. It's not like I went in there ranting and raving like trash off the street. I am very educated and spoke in a calm and polite tone. Apparantly in his mind I should have just kept quiet and stayed in my room. He acted like he did me a favor by even waiting on me at the desk. I was once an assistant manager for a hotel years ago and I would have fired him. I cannot understand how people like this can keep their jobs. When I got to my room, I could see that the deadbolt was broken. Big problem for me because I didn't feel safe, so I went and requested another room. The man...I needed a place to sleep because my A/C quit, so I came here because it was a reasonable rate. Didn't care whether there was free breakfast or not because I go to work early, so I cannot comment on the breakfast. All I can say that the service was EXTREMELY RUDE. The man at the desk may not have said it, but his attitude showed that he could have cared less about whether I(or any customer) was happy or comfortable. I do not mean to sound prejudice, but certain nationalities need to realize that women are equal to men here in America. I felt like the man did not want to attend to my needs because I am a young woman. It's not like I went in there ranting and raving like trash off the street. I am very educated and spoke in a calm and polite tone. Apparantly in his mind I should have just kept quiet and stayed in my room. He acted like he did me a favor by even waiting on me at the desk. I was once an assistant manager for a hotel years ago and I would have fired him. I cannot understand how people like this can keep their jobs. When I got to my room, I could see that the deadbolt was broken. Big problem for me because I didn't feel safe, so I went and requested another room. The man acted like it was my fault and he said "well I'm coming to see." I showed him and he gave me another room, but his mannerisms showed he was very annoyed. The second room's lock was fine, but there were feces smeared on the toilet seat and I could see that the room was old and run down. In fact, the whole place could use alot of repair! I just cleaned the toilet myself and ruined my appetite. I had planned on going to a nice dinner with a friend, but after that, I felt sick to my stomach. I didn't bother to report the feces to the front desk because I didn't want to deal with that man again. Only good thing I can say is that my friend and I enjoyed watching TV and had a nice night of sleep in A/C which is what we came for, but mot the other hassles and even though it's not expensive, it should at least be clean. I have already reported this to CHOICE hotels as I am a Choice privileges member. This is definitely not up to CHOICE standards and should be noted.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I needed a place to sleep because my A/C quit, so I came here because it was a reasonable rate. Didn't care whether there was free breakfast or not because I go to work early, so I cannot comment on the breakfast. All I can say that the service was EXTREMELY RUDE. The man at the desk may not have said it, but his attitude showed that he could have cared less about whether I(or any customer) was happy or comfortable. I do not mean to sound prejudice, but certain nationalities need to realize that women are equal to men here in America. I felt like the man did not want to attend to my needs because I am a young woman. It's not like I went in there ranting and raving like trash off the street. I am very educated and spoke in a calm and polite tone. Apparantly in his mind I should have just kept quiet and stayed in my room. He acted like he did me a favor by even waiting on me at the desk. I was once an assistant manager for a hotel years ago and I would have fired him. I cannot understand how people like this can keep their jobs. When I got to my room, I could see that the deadbolt was broken. Big problem for me because I didn't feel safe, so I went and requested another room. The man...I needed a place to sleep because my A/C quit, so I came here because it was a reasonable rate. Didn't care whether there was free breakfast or not because I go to work early, so I cannot comment on the breakfast. All I can say that the service was EXTREMELY RUDE. The man at the desk may not have said it, but his attitude showed that he could have cared less about whether I(or any customer) was happy or comfortable. I do not mean to sound prejudice, but certain nationalities need to realize that women are equal to men here in America. I felt like the man did not want to attend to my needs because I am a young woman. It's not like I went in there ranting and raving like trash off the street. I am very educated and spoke in a calm and polite tone. Apparantly in his mind I should have just kept quiet and stayed in my room. He acted like he did me a favor by even waiting on me at the desk. I was once an assistant manager for a hotel years ago and I would have fired him. I cannot understand how people like this can keep their jobs. When I got to my room, I could see that the deadbolt was broken. Big problem for me because I didn't feel safe, so I went and requested another room. The man acted like it was my fault and he said "well I'm coming to see." I showed him and he gave me another room, but his mannerisms showed he was very annoyed. The second room's lock was fine, but there were feces smeared on the toilet seat and I could see that the room was old and run down. In fact, the whole place could use alot of repair! I just cleaned the toilet myself and ruined my appetite. I had planned on going to a nice dinner with a friend, but after that, I felt sick to my stomach. I didn't bother to report the feces to the front desk because I didn't want to deal with that man again. Only good thing I can say is that my friend and I enjoyed watching TV and had a nice night of sleep in A/C which is what we came for, but mot the other hassles and even though it's not expensive, it should at least be clean. I have already reported this to CHOICE hotels as I am a Choice privileges member. This is definitely not up to CHOICE standards and should be noted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r130957411-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>130957411</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Clean room but needs TLC</t>
+  </si>
+  <si>
+    <t>Room was clean and smelled nice. The room was a good size for a king bed.  The room needed some minor repairs and the hotel is showing age.  All the rooms centered around a pool that looked clean.  There was a frig.  Great location for food and mall.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r130406327-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>130406327</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>This place looks good from the outside, but is a disaster. The floors are filthy, the toilet seat was broken and taped together, the walls were dirty, there was mold on the windowsills and they had 3 prong lights plugged into 2 prong extension cords strung across the floors in our room. The breakfast area was not well stocked and the tables and floors were sticky.Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r129821362-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129821362</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>Do not stay here for any reason.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for Jazzfest 5/2 - 5/9. It was well located to get to the fairgrounds and 5 minutes from friends we were visiting. 
+Only room available was on third floor but there was a creepy dirty elevator. Room has lampshade missing, some gross things I didn't even tell my husband about, and burned out lights in the hallway. We were told every single day that the light would be fixed but it was still out when we left.
+Two days later they replaced the lampshade (it took the guy three visits).
+The sheets had little stains all over them. When we asked that they be changed they either replaced them with more stained sheets or flipped them around.
+But the towels -- OMG. We practically started an international incident. Because we are grown up people we requested extra towels. First night told to come down to desk to get them. OKay. Next day came home late and extra towels were gone. Obviously a call to the night desk was fruitless. 
+Next morning we asked the housekeeper for extra towels. She explained that we were only allowed two sets and when the supervisor comes by they get in trouble for leaving extra towels. (I'm still puzzled how you could inspect a room and not notice a lampshade missing.)
+She "snuck" us in a couple of extra towels and said she would leave a note to leave...My husband and I stayed here for Jazzfest 5/2 - 5/9. It was well located to get to the fairgrounds and 5 minutes from friends we were visiting. Only room available was on third floor but there was a creepy dirty elevator. Room has lampshade missing, some gross things I didn't even tell my husband about, and burned out lights in the hallway. We were told every single day that the light would be fixed but it was still out when we left.Two days later they replaced the lampshade (it took the guy three visits).The sheets had little stains all over them. When we asked that they be changed they either replaced them with more stained sheets or flipped them around.But the towels -- OMG. We practically started an international incident. Because we are grown up people we requested extra towels. First night told to come down to desk to get them. OKay. Next day came home late and extra towels were gone. Obviously a call to the night desk was fruitless. Next morning we asked the housekeeper for extra towels. She explained that we were only allowed two sets and when the supervisor comes by they get in trouble for leaving extra towels. (I'm still puzzled how you could inspect a room and not notice a lampshade missing.)She "snuck" us in a couple of extra towels and said she would leave a note to leave our towels alone while we were there.One of the towels looked like it had been used to clean a chimney. Long story short, extra towels taken away again. Apparently I misunderstood what southern hospitality meant. Every amenity was substandard. The place looked like it had once been nice but it isn't anymore. We dubbed it the Econo-dump.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for Jazzfest 5/2 - 5/9. It was well located to get to the fairgrounds and 5 minutes from friends we were visiting. 
+Only room available was on third floor but there was a creepy dirty elevator. Room has lampshade missing, some gross things I didn't even tell my husband about, and burned out lights in the hallway. We were told every single day that the light would be fixed but it was still out when we left.
+Two days later they replaced the lampshade (it took the guy three visits).
+The sheets had little stains all over them. When we asked that they be changed they either replaced them with more stained sheets or flipped them around.
+But the towels -- OMG. We practically started an international incident. Because we are grown up people we requested extra towels. First night told to come down to desk to get them. OKay. Next day came home late and extra towels were gone. Obviously a call to the night desk was fruitless. 
+Next morning we asked the housekeeper for extra towels. She explained that we were only allowed two sets and when the supervisor comes by they get in trouble for leaving extra towels. (I'm still puzzled how you could inspect a room and not notice a lampshade missing.)
+She "snuck" us in a couple of extra towels and said she would leave a note to leave...My husband and I stayed here for Jazzfest 5/2 - 5/9. It was well located to get to the fairgrounds and 5 minutes from friends we were visiting. Only room available was on third floor but there was a creepy dirty elevator. Room has lampshade missing, some gross things I didn't even tell my husband about, and burned out lights in the hallway. We were told every single day that the light would be fixed but it was still out when we left.Two days later they replaced the lampshade (it took the guy three visits).The sheets had little stains all over them. When we asked that they be changed they either replaced them with more stained sheets or flipped them around.But the towels -- OMG. We practically started an international incident. Because we are grown up people we requested extra towels. First night told to come down to desk to get them. OKay. Next day came home late and extra towels were gone. Obviously a call to the night desk was fruitless. Next morning we asked the housekeeper for extra towels. She explained that we were only allowed two sets and when the supervisor comes by they get in trouble for leaving extra towels. (I'm still puzzled how you could inspect a room and not notice a lampshade missing.)She "snuck" us in a couple of extra towels and said she would leave a note to leave our towels alone while we were there.One of the towels looked like it had been used to clean a chimney. Long story short, extra towels taken away again. Apparently I misunderstood what southern hospitality meant. Every amenity was substandard. The place looked like it had once been nice but it isn't anymore. We dubbed it the Econo-dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r128926476-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>128926476</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Clean Room...Rude Experience When Checking Out</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Econolodge on a whim so we would be close to the Airport for an early morning flight the next day.  The room that we stayed in was very neat and clean and large.  The pool looked clean, but we never got close enough to it to tell if it was or not.  I never had a problem with the hotel at all.  It’s a budget hotel that’s close to the Airport.  It wasn’t perfect by all means, but for the price that I paid, it was clean and comfortable.  I only had a problem with the person who checked us out.  Our flight was at 6:00 AM, so we decided to check out at 4:30 AM.  The guy behind the desk was very rude, he threw the receipt at my boyfriend and wasn’t friendly at all.  I thought that was strange because when we checked in the day before, the girl behind the desk was very polite and helped us navigate to our rooms.  That ruined my stay a little, but if I had to do it again, I would definitely stay at the Econolodge again if I need a cheap room near the Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Econolodge on a whim so we would be close to the Airport for an early morning flight the next day.  The room that we stayed in was very neat and clean and large.  The pool looked clean, but we never got close enough to it to tell if it was or not.  I never had a problem with the hotel at all.  It’s a budget hotel that’s close to the Airport.  It wasn’t perfect by all means, but for the price that I paid, it was clean and comfortable.  I only had a problem with the person who checked us out.  Our flight was at 6:00 AM, so we decided to check out at 4:30 AM.  The guy behind the desk was very rude, he threw the receipt at my boyfriend and wasn’t friendly at all.  I thought that was strange because when we checked in the day before, the girl behind the desk was very polite and helped us navigate to our rooms.  That ruined my stay a little, but if I had to do it again, I would definitely stay at the Econolodge again if I need a cheap room near the Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r128403017-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>128403017</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Will do in a pinch</t>
+  </si>
+  <si>
+    <t>Went to New Orleans for the final four - a last minute decision.  Did not want to stay 60 miles away.  Breakfast was barely acceptable, could of found better choices at a 7-11.  Cleanliness was barely acceptable for us boys, if my wife was there - well we would have not been there I am sure.  The other review are all correct.  Maybe one quick night if you have to wait to get something better or were stuck at the airport.  Will say the air conditioning worked well and my bathroom was remodeled and mostly modern and clean.  Did not like the fact that some cleaning supplies were left in the bathrrom by the maid staff.  The pool and pool area were fresh and clean and they were working on the land scaping around the pool when I was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to New Orleans for the final four - a last minute decision.  Did not want to stay 60 miles away.  Breakfast was barely acceptable, could of found better choices at a 7-11.  Cleanliness was barely acceptable for us boys, if my wife was there - well we would have not been there I am sure.  The other review are all correct.  Maybe one quick night if you have to wait to get something better or were stuck at the airport.  Will say the air conditioning worked well and my bathroom was remodeled and mostly modern and clean.  Did not like the fact that some cleaning supplies were left in the bathrrom by the maid staff.  The pool and pool area were fresh and clean and they were working on the land scaping around the pool when I was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r127150359-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127150359</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Poorly maintained and under managed</t>
+  </si>
+  <si>
+    <t>The computer reservation system was down when I arrived and I had to wait 15 minutes before it came up again to get a room.  This is an airport an airport motel, but they do not offer the ability to print your boarding passes.  I was placed in a small suite, but the outer room in the suite was equipped only with a TV, one easy chair, a desk, and a side chair.  There was additional room for at least two couches, end tables, etc.  My impression was of one of inadequate maintenance and poor overall management.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r126659221-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>126659221</t>
+  </si>
+  <si>
+    <t>03/25/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't let the photos fool you.This is the worst hotel I have ever stayed in. no microwave or fridge in the rooms but the charge the same rate as other hotels in the area. Looks like run-down public housing where the rooms are. Dirty stairwells, stinky rooms. And I heard people live in the hotel. Laundromat equipment broken and no complimentary computer for guests. Choose another hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r125428093-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>125428093</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Not worth it, you can find something the same price &amp; way better...</t>
+  </si>
+  <si>
+    <t>It was a horrible stay...the room smelled bad...the restroom was disgusting, carpet was awful! I would never stay here again....ever!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r124835948-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124835948</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Walls Paper Thin</t>
+  </si>
+  <si>
+    <t>We had trouble checking in, I had booked through hotels.com and had a confirmation number and already paid for the room, but, the hotel didn't have us in their system.  Therefore we had to contact hotels.com ourselves and have them talk to the hotel, finally we did get checked in about 45 minutes later.  Luckily they still had a room for us.  Room was very dirty, tub had hair in it, hair on the sheets and floor in the bathroom was broken.  Also, walls are paper thin, you could hear everyone talking as they walked by your room, plus airplanes flying above.  Not a good deal for your money.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r124063733-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124063733</t>
+  </si>
+  <si>
+    <t>02/03/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key cards don't work to get in from outside. Bathtub water was orange, rusted pipes I suspect. Nice breakfast with cereal, muffins and Belgian waffle maker. Bed was comfortable, new flat screen tv's. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r122601601-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>122601601</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>rude and bad service</t>
+  </si>
+  <si>
+    <t>we checked into room which was okay for staying just for the night and we noticed how bad parking was.  The room was comfortable enough and we were only there a few hours for celebrating in New Orleans New Years Eve night.  We got back about 2am and it was chaos in the parking lot.  Everybody in the cars were jammed up with no places to park, we were told to go in back far away from our room, and its not in the best area of town right off the street.  The lot is not gated or secure at all and people were drinking and partying in the lot.  We went to office to check out and drive home which was about 2 hrs. away into Baton Rouge.  The office staff was very rude and barely spoke English.  They just kept pointing at some kind of contract for us to sign to check out and threw the papers at us.  We just left and people were talking so loud in the office you didn't know if complaining or what.  They should not take reservations if they have no room to accomodate parking in a safe area.  We tried calling on phone after getting back to Baton Rouge and could hardly find a person who spoke English clear enough to help us and make sure we were checked out and not charged for another day.  It was very hard for...we checked into room which was okay for staying just for the night and we noticed how bad parking was.  The room was comfortable enough and we were only there a few hours for celebrating in New Orleans New Years Eve night.  We got back about 2am and it was chaos in the parking lot.  Everybody in the cars were jammed up with no places to park, we were told to go in back far away from our room, and its not in the best area of town right off the street.  The lot is not gated or secure at all and people were drinking and partying in the lot.  We went to office to check out and drive home which was about 2 hrs. away into Baton Rouge.  The office staff was very rude and barely spoke English.  They just kept pointing at some kind of contract for us to sign to check out and threw the papers at us.  We just left and people were talking so loud in the office you didn't know if complaining or what.  They should not take reservations if they have no room to accomodate parking in a safe area.  We tried calling on phone after getting back to Baton Rouge and could hardly find a person who spoke English clear enough to help us and make sure we were checked out and not charged for another day.  It was very hard for us to have to drive back after celebrating all night in New Orleans and was very careful driving on the interstate with lots of police around.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>we checked into room which was okay for staying just for the night and we noticed how bad parking was.  The room was comfortable enough and we were only there a few hours for celebrating in New Orleans New Years Eve night.  We got back about 2am and it was chaos in the parking lot.  Everybody in the cars were jammed up with no places to park, we were told to go in back far away from our room, and its not in the best area of town right off the street.  The lot is not gated or secure at all and people were drinking and partying in the lot.  We went to office to check out and drive home which was about 2 hrs. away into Baton Rouge.  The office staff was very rude and barely spoke English.  They just kept pointing at some kind of contract for us to sign to check out and threw the papers at us.  We just left and people were talking so loud in the office you didn't know if complaining or what.  They should not take reservations if they have no room to accomodate parking in a safe area.  We tried calling on phone after getting back to Baton Rouge and could hardly find a person who spoke English clear enough to help us and make sure we were checked out and not charged for another day.  It was very hard for...we checked into room which was okay for staying just for the night and we noticed how bad parking was.  The room was comfortable enough and we were only there a few hours for celebrating in New Orleans New Years Eve night.  We got back about 2am and it was chaos in the parking lot.  Everybody in the cars were jammed up with no places to park, we were told to go in back far away from our room, and its not in the best area of town right off the street.  The lot is not gated or secure at all and people were drinking and partying in the lot.  We went to office to check out and drive home which was about 2 hrs. away into Baton Rouge.  The office staff was very rude and barely spoke English.  They just kept pointing at some kind of contract for us to sign to check out and threw the papers at us.  We just left and people were talking so loud in the office you didn't know if complaining or what.  They should not take reservations if they have no room to accomodate parking in a safe area.  We tried calling on phone after getting back to Baton Rouge and could hardly find a person who spoke English clear enough to help us and make sure we were checked out and not charged for another day.  It was very hard for us to have to drive back after celebrating all night in New Orleans and was very careful driving on the interstate with lots of police around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r120541464-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>120541464</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>If your are a light sleeper or need sleep this is a dont on the list any hotel in this area would be a dont first off this is located so close to the airport that you can hear planes landing and taking off. Not so bad if they wheren't so freaking loud. Also not everyone likes to be quite and likes to consider that someone else other than themselves wants to sleep and you can hear doors slamming all night. The breakfast isn't as nice as the pictures make it seem. The have cereal, two toast choices and a couple of muffins and coffee and juice that is all if you need something more go some place else. I didn't notice till I was checking out Sunday morning but apparently they let everyone from the neighborhood party in the parking lot. I went out to loud the car got hit on 4 times and had to move three glass beer bottles just to get out of the parking lot. This hotel does have some good parts the elevator does work does it look bad yes but it does run nothing a little cleaning wouldnt fix as for the rooms they are clean very very clean as in I could walk across the floor with bare feet and they not get black, plenty of towels and outlets and lights, and parking was plentiful and overall I would say if you...If your are a light sleeper or need sleep this is a dont on the list any hotel in this area would be a dont first off this is located so close to the airport that you can hear planes landing and taking off. Not so bad if they wheren't so freaking loud. Also not everyone likes to be quite and likes to consider that someone else other than themselves wants to sleep and you can hear doors slamming all night. The breakfast isn't as nice as the pictures make it seem. The have cereal, two toast choices and a couple of muffins and coffee and juice that is all if you need something more go some place else. I didn't notice till I was checking out Sunday morning but apparently they let everyone from the neighborhood party in the parking lot. I went out to loud the car got hit on 4 times and had to move three glass beer bottles just to get out of the parking lot. This hotel does have some good parts the elevator does work does it look bad yes but it does run nothing a little cleaning wouldnt fix as for the rooms they are clean very very clean as in I could walk across the floor with bare feet and they not get black, plenty of towels and outlets and lights, and parking was plentiful and overall I would say if you can sleep throught anything this is a o.k place to stay if not you might not even want to stay in Kenner at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>If your are a light sleeper or need sleep this is a dont on the list any hotel in this area would be a dont first off this is located so close to the airport that you can hear planes landing and taking off. Not so bad if they wheren't so freaking loud. Also not everyone likes to be quite and likes to consider that someone else other than themselves wants to sleep and you can hear doors slamming all night. The breakfast isn't as nice as the pictures make it seem. The have cereal, two toast choices and a couple of muffins and coffee and juice that is all if you need something more go some place else. I didn't notice till I was checking out Sunday morning but apparently they let everyone from the neighborhood party in the parking lot. I went out to loud the car got hit on 4 times and had to move three glass beer bottles just to get out of the parking lot. This hotel does have some good parts the elevator does work does it look bad yes but it does run nothing a little cleaning wouldnt fix as for the rooms they are clean very very clean as in I could walk across the floor with bare feet and they not get black, plenty of towels and outlets and lights, and parking was plentiful and overall I would say if you...If your are a light sleeper or need sleep this is a dont on the list any hotel in this area would be a dont first off this is located so close to the airport that you can hear planes landing and taking off. Not so bad if they wheren't so freaking loud. Also not everyone likes to be quite and likes to consider that someone else other than themselves wants to sleep and you can hear doors slamming all night. The breakfast isn't as nice as the pictures make it seem. The have cereal, two toast choices and a couple of muffins and coffee and juice that is all if you need something more go some place else. I didn't notice till I was checking out Sunday morning but apparently they let everyone from the neighborhood party in the parking lot. I went out to loud the car got hit on 4 times and had to move three glass beer bottles just to get out of the parking lot. This hotel does have some good parts the elevator does work does it look bad yes but it does run nothing a little cleaning wouldnt fix as for the rooms they are clean very very clean as in I could walk across the floor with bare feet and they not get black, plenty of towels and outlets and lights, and parking was plentiful and overall I would say if you can sleep throught anything this is a o.k place to stay if not you might not even want to stay in Kenner at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r115064763-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>115064763</t>
+  </si>
+  <si>
+    <t>07/05/2011</t>
+  </si>
+  <si>
+    <t>An okay place to stay</t>
+  </si>
+  <si>
+    <t>Front desk staff was okay. Not rude or friendly, just okay. The room was okay. I just wanted peace and quiet, that's all. It's not 3 or 4 star, so don't expect "red carpet" service.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r107833608-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>107833608</t>
+  </si>
+  <si>
+    <t>05/11/2011</t>
+  </si>
+  <si>
+    <t>Nasty is too nice....</t>
+  </si>
+  <si>
+    <t>New paint over peeling sheet rock describes this place. At the entrance is a green, murky, nonworking fountain as a sign of things to come. No child locks at pool area. Hoses stretched out across walkway. Hot tub did not work, pool was dirty. Air conditioners leak on walkways making them green and slippery. Rooms are dirty, toilets don't like to flush, lights that don't work.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r107399150-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>107399150</t>
+  </si>
+  <si>
+    <t>05/08/2011</t>
+  </si>
+  <si>
+    <t>It was okay...</t>
+  </si>
+  <si>
+    <t>The hotel rooms aren't in the most updated conditions. The room I stayed in didn't have have a flat screen television, which I found odd cause the other rooms did (I suppose just bad luck!) The pool area was okay, cleanliness wasn't much of an issue. The elevator to the hotel was majorly outdated, looked like it was about to break down, and smelled kind of funky. The area surrounding the hotel was a pretty decent area, you had plenty of stores/places to dine that were literally one minute away. It was only 15 minutes away from New Orleans Downtown, and not any major traffic issues there. Overall...okay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r62634629-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>62634629</t>
+  </si>
+  <si>
+    <t>04/27/2010</t>
+  </si>
+  <si>
+    <t>America's Worst Inn</t>
+  </si>
+  <si>
+    <t>Upon arrival, everything looked ok, even though the price was too high for the area it was located in.
+Around five PM the girls in the room next to us started having a party. They were screaming and listening to very loud music. Apparently the hotel thought this was no problem, because the noise went on for hours. Finally at 10 PM we had to ask the girls oureselves to turn the music down, which they did.
+However the screaming continued for hours more. There were at least 6 girls staying in that room, which was ment for a maximum of 2 persons. Apparently the hotel didn't care about that either.
+After hours of not sleeping, finally we tried to call the front desk so that they could handle the situation. But of course no answer there. We had to go over to the girls' room again, but of course, the rest of the night they weren't quiet either and we didn't get any sleep at all.
+The worst part was that when we complained about it the next morning, the woman at the front desk didn't take our complaint serious at all. No appologies, and not even making the effort to look at us and listen to us. She kept staring at her computer and telling us with a huge attitude, that this was normal for a hotel.
+Apparently it was normal for this hotel that you pay 67...Upon arrival, everything looked ok, even though the price was too high for the area it was located in.Around five PM the girls in the room next to us started having a party. They were screaming and listening to very loud music. Apparently the hotel thought this was no problem, because the noise went on for hours. Finally at 10 PM we had to ask the girls oureselves to turn the music down, which they did.However the screaming continued for hours more. There were at least 6 girls staying in that room, which was ment for a maximum of 2 persons. Apparently the hotel didn't care about that either.After hours of not sleeping, finally we tried to call the front desk so that they could handle the situation. But of course no answer there. We had to go over to the girls' room again, but of course, the rest of the night they weren't quiet either and we didn't get any sleep at all.The worst part was that when we complained about it the next morning, the woman at the front desk didn't take our complaint serious at all. No appologies, and not even making the effort to look at us and listen to us. She kept staring at her computer and telling us with a huge attitude, that this was normal for a hotel.Apparently it was normal for this hotel that you pay 67 dollars not to sleep the whole night and not to get any service at all.This hotel was really America's Worst Inn. Don't go here if you value your night's rest.PS. The rest of the staff was very nice and polite, just the lady the next morning at the front desk was really rude and should consider a different profession (nothing that has to do with contact with other persons)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Upon arrival, everything looked ok, even though the price was too high for the area it was located in.
+Around five PM the girls in the room next to us started having a party. They were screaming and listening to very loud music. Apparently the hotel thought this was no problem, because the noise went on for hours. Finally at 10 PM we had to ask the girls oureselves to turn the music down, which they did.
+However the screaming continued for hours more. There were at least 6 girls staying in that room, which was ment for a maximum of 2 persons. Apparently the hotel didn't care about that either.
+After hours of not sleeping, finally we tried to call the front desk so that they could handle the situation. But of course no answer there. We had to go over to the girls' room again, but of course, the rest of the night they weren't quiet either and we didn't get any sleep at all.
+The worst part was that when we complained about it the next morning, the woman at the front desk didn't take our complaint serious at all. No appologies, and not even making the effort to look at us and listen to us. She kept staring at her computer and telling us with a huge attitude, that this was normal for a hotel.
+Apparently it was normal for this hotel that you pay 67...Upon arrival, everything looked ok, even though the price was too high for the area it was located in.Around five PM the girls in the room next to us started having a party. They were screaming and listening to very loud music. Apparently the hotel thought this was no problem, because the noise went on for hours. Finally at 10 PM we had to ask the girls oureselves to turn the music down, which they did.However the screaming continued for hours more. There were at least 6 girls staying in that room, which was ment for a maximum of 2 persons. Apparently the hotel didn't care about that either.After hours of not sleeping, finally we tried to call the front desk so that they could handle the situation. But of course no answer there. We had to go over to the girls' room again, but of course, the rest of the night they weren't quiet either and we didn't get any sleep at all.The worst part was that when we complained about it the next morning, the woman at the front desk didn't take our complaint serious at all. No appologies, and not even making the effort to look at us and listen to us. She kept staring at her computer and telling us with a huge attitude, that this was normal for a hotel.Apparently it was normal for this hotel that you pay 67 dollars not to sleep the whole night and not to get any service at all.This hotel was really America's Worst Inn. Don't go here if you value your night's rest.PS. The rest of the staff was very nice and polite, just the lady the next morning at the front desk was really rude and should consider a different profession (nothing that has to do with contact with other persons)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r52515767-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>52515767</t>
+  </si>
+  <si>
+    <t>01/03/2010</t>
+  </si>
+  <si>
+    <t>Nice room...but bring ear plugs.</t>
+  </si>
+  <si>
+    <t>Booked this hotel through Hotwire at the last minute after getting tickets for the Sugar Bowl for 1/1/10. I was pleased with the front desk service--they were very nice and helpful. I liked that the access to the rooms was through the front lobby--it made me feel safer, as my friend and I are single, young women. The rooms are NOT quiet, though. Since the hotel is located near the New Orleans airport, we heard planes all through the night. Also, the walls are very, very thin--I heard every sound from the guests above us and to the sides of us. The room was surprisingly spacious, all things considered, and clean. A little rundown--as in, it probably could've used a new bathroom door and a fresh coat of paint--but nothing glaringly obvious. I wouldn't mind booking here again because the location was so convenient, but I would definitely bring earplugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>Booked this hotel through Hotwire at the last minute after getting tickets for the Sugar Bowl for 1/1/10. I was pleased with the front desk service--they were very nice and helpful. I liked that the access to the rooms was through the front lobby--it made me feel safer, as my friend and I are single, young women. The rooms are NOT quiet, though. Since the hotel is located near the New Orleans airport, we heard planes all through the night. Also, the walls are very, very thin--I heard every sound from the guests above us and to the sides of us. The room was surprisingly spacious, all things considered, and clean. A little rundown--as in, it probably could've used a new bathroom door and a fresh coat of paint--but nothing glaringly obvious. I wouldn't mind booking here again because the location was so convenient, but I would definitely bring earplugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r49910510-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>49910510</t>
+  </si>
+  <si>
+    <t>11/23/2009</t>
+  </si>
+  <si>
+    <t>its really amesing and nice .. i cant explane in word</t>
+  </si>
+  <si>
+    <t>service is excellent .. nice and warm welcome. like to go agian there.. room is clean and nice..</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r31648585-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>31648585</t>
+  </si>
+  <si>
+    <t>06/05/2009</t>
+  </si>
+  <si>
+    <t>Rooms Not Clean</t>
+  </si>
+  <si>
+    <t>We traveled with a group and reserved 5 rooms..  The bathroom in one of the rooms appeared to have been "used" and not cleaned.  Wife had to clean it herself. Contenental breakfast was a joke.  Had to be ask to make more coffee.  Three of the room had dirty bed (i.e.  hair in bed, stained linnens.)</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r10595249-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>10595249</t>
+  </si>
+  <si>
+    <t>11/04/2007</t>
+  </si>
+  <si>
+    <t>Basically WAS a crackhouse.</t>
+  </si>
+  <si>
+    <t>The hotel looked fine from the outside, and the lobby was clean, but the room was disgusting - stains on walls, graffiti on bathroom door, peeling paint and trim, furniture that was falling apart, a tree-shaped air freshener on the curtains, etc. We were actually told we were getting one of the "nice rooms." Besides that, we could hardly sleep at night since people were yelling outside and the walls and ceiling were paper thin.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d508042-r7616774-Econo_Lodge-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>7616774</t>
+  </si>
+  <si>
+    <t>05/13/2007</t>
+  </si>
+  <si>
+    <t>A Crackhouse would have been better</t>
+  </si>
+  <si>
+    <t>I walked into the Lobby to find 5 women sitting around with music playing and the phone on the desk.  I stood there at the desk waiting for a good bit of time until one asked if they could help me, at which point I made the mistake of checking in.  As I approached my room I was asked by man if he could buy a cigarette from me.  I entered my room to find a dead roach stuck to the wall, medical tape stuck to the bathroom wall, ashes in the sink, huge stains on the carpet and multiple cigarette burn marks on all the furniture.  There was no ashtray available even though it was a smoking room. (explains the burn marks on the furniture I guess).  I pulled back the cover on the bed to find a sheet....just one flat sheet.  nothing to climb between except the one flat sheet and the bedspread which I assume was probably no cleaner than the rest of the room.   At approx. 1am the fire alarm went off and continued to sound for around an hour.  When I called the desk to find out if it was ever going to be shut off they said they were waiting on the local police before they could shut it off.  So for $55 I managed to get about 4hrs of the worst sleep I have ever had.   BEWARE of ROOM 142!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>I walked into the Lobby to find 5 women sitting around with music playing and the phone on the desk.  I stood there at the desk waiting for a good bit of time until one asked if they could help me, at which point I made the mistake of checking in.  As I approached my room I was asked by man if he could buy a cigarette from me.  I entered my room to find a dead roach stuck to the wall, medical tape stuck to the bathroom wall, ashes in the sink, huge stains on the carpet and multiple cigarette burn marks on all the furniture.  There was no ashtray available even though it was a smoking room. (explains the burn marks on the furniture I guess).  I pulled back the cover on the bed to find a sheet....just one flat sheet.  nothing to climb between except the one flat sheet and the bedspread which I assume was probably no cleaner than the rest of the room.   At approx. 1am the fire alarm went off and continued to sound for around an hour.  When I called the desk to find out if it was ever going to be shut off they said they were waiting on the local police before they could shut it off.  So for $55 I managed to get about 4hrs of the worst sleep I have ever had.   BEWARE of ROOM 142!!!!More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +2415,6098 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" t="s">
+        <v>215</v>
+      </c>
+      <c r="L32" t="s">
+        <v>216</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>219</v>
+      </c>
+      <c r="J33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>229</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" t="s">
+        <v>234</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>240</v>
+      </c>
+      <c r="O36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>240</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" t="s">
+        <v>250</v>
+      </c>
+      <c r="L38" t="s">
+        <v>251</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>240</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>253</v>
+      </c>
+      <c r="J39" t="s">
+        <v>254</v>
+      </c>
+      <c r="K39" t="s">
+        <v>255</v>
+      </c>
+      <c r="L39" t="s">
+        <v>256</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" t="s">
+        <v>260</v>
+      </c>
+      <c r="K40" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" t="s">
+        <v>262</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>263</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L41" t="s">
+        <v>269</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" t="s">
+        <v>274</v>
+      </c>
+      <c r="K42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L42" t="s">
+        <v>276</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>270</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" t="s">
+        <v>280</v>
+      </c>
+      <c r="K43" t="s">
+        <v>281</v>
+      </c>
+      <c r="L43" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>283</v>
+      </c>
+      <c r="O43" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>289</v>
+      </c>
+      <c r="O44" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" t="s">
+        <v>292</v>
+      </c>
+      <c r="K45" t="s">
+        <v>293</v>
+      </c>
+      <c r="L45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>295</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" t="s">
+        <v>301</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>304</v>
+      </c>
+      <c r="J47" t="s">
+        <v>305</v>
+      </c>
+      <c r="K47" t="s">
+        <v>306</v>
+      </c>
+      <c r="L47" t="s">
+        <v>307</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>283</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>309</v>
+      </c>
+      <c r="J48" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J49" t="s">
+        <v>315</v>
+      </c>
+      <c r="K49" t="s">
+        <v>316</v>
+      </c>
+      <c r="L49" t="s">
+        <v>317</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>318</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J51" t="s">
+        <v>326</v>
+      </c>
+      <c r="K51" t="s">
+        <v>327</v>
+      </c>
+      <c r="L51" t="s">
+        <v>328</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>318</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>330</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>331</v>
+      </c>
+      <c r="J52" t="s">
+        <v>332</v>
+      </c>
+      <c r="K52" t="s">
+        <v>333</v>
+      </c>
+      <c r="L52" t="s">
+        <v>334</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>335</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" t="s">
+        <v>340</v>
+      </c>
+      <c r="L53" t="s">
+        <v>341</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>342</v>
+      </c>
+      <c r="O53" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>345</v>
+      </c>
+      <c r="J54" t="s">
+        <v>346</v>
+      </c>
+      <c r="K54" t="s">
+        <v>347</v>
+      </c>
+      <c r="L54" t="s">
+        <v>348</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>342</v>
+      </c>
+      <c r="O54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>350</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>351</v>
+      </c>
+      <c r="J55" t="s">
+        <v>352</v>
+      </c>
+      <c r="K55" t="s">
+        <v>353</v>
+      </c>
+      <c r="L55" t="s">
+        <v>354</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>356</v>
+      </c>
+      <c r="J56" t="s">
+        <v>357</v>
+      </c>
+      <c r="K56" t="s">
+        <v>358</v>
+      </c>
+      <c r="L56" t="s">
+        <v>359</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>360</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s">
+        <v>365</v>
+      </c>
+      <c r="L57" t="s">
+        <v>366</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>360</v>
+      </c>
+      <c r="O57" t="s">
+        <v>50</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>369</v>
+      </c>
+      <c r="J58" t="s">
+        <v>370</v>
+      </c>
+      <c r="K58" t="s">
+        <v>371</v>
+      </c>
+      <c r="L58" t="s">
+        <v>372</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>335</v>
+      </c>
+      <c r="O58" t="s">
+        <v>50</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>375</v>
+      </c>
+      <c r="J59" t="s">
+        <v>376</v>
+      </c>
+      <c r="K59" t="s">
+        <v>377</v>
+      </c>
+      <c r="L59" t="s">
+        <v>378</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>379</v>
+      </c>
+      <c r="O59" t="s">
+        <v>50</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>381</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>382</v>
+      </c>
+      <c r="J60" t="s">
+        <v>383</v>
+      </c>
+      <c r="K60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s">
+        <v>385</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>379</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>386</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>387</v>
+      </c>
+      <c r="J61" t="s">
+        <v>388</v>
+      </c>
+      <c r="K61" t="s">
+        <v>389</v>
+      </c>
+      <c r="L61" t="s">
+        <v>390</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>391</v>
+      </c>
+      <c r="O61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>394</v>
+      </c>
+      <c r="J62" t="s">
+        <v>395</v>
+      </c>
+      <c r="K62" t="s">
+        <v>396</v>
+      </c>
+      <c r="L62" t="s">
+        <v>397</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>398</v>
+      </c>
+      <c r="X62" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="s">
+        <v>403</v>
+      </c>
+      <c r="K63" t="s">
+        <v>404</v>
+      </c>
+      <c r="L63" t="s">
+        <v>405</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>406</v>
+      </c>
+      <c r="O63" t="s">
+        <v>50</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>407</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>408</v>
+      </c>
+      <c r="J64" t="s">
+        <v>409</v>
+      </c>
+      <c r="K64" t="s">
+        <v>410</v>
+      </c>
+      <c r="L64" t="s">
+        <v>411</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>414</v>
+      </c>
+      <c r="J65" t="s">
+        <v>415</v>
+      </c>
+      <c r="K65" t="s">
+        <v>416</v>
+      </c>
+      <c r="L65" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>418</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>419</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>420</v>
+      </c>
+      <c r="J66" t="s">
+        <v>421</v>
+      </c>
+      <c r="K66" t="s">
+        <v>422</v>
+      </c>
+      <c r="L66" t="s">
+        <v>423</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>425</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>426</v>
+      </c>
+      <c r="J67" t="s">
+        <v>427</v>
+      </c>
+      <c r="K67" t="s">
+        <v>428</v>
+      </c>
+      <c r="L67" t="s">
+        <v>429</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>430</v>
+      </c>
+      <c r="O67" t="s">
+        <v>50</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>432</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>433</v>
+      </c>
+      <c r="J68" t="s">
+        <v>434</v>
+      </c>
+      <c r="K68" t="s">
+        <v>435</v>
+      </c>
+      <c r="L68" t="s">
+        <v>436</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>437</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>439</v>
+      </c>
+      <c r="J69" t="s">
+        <v>440</v>
+      </c>
+      <c r="K69" t="s">
+        <v>441</v>
+      </c>
+      <c r="L69" t="s">
+        <v>442</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>437</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>444</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J70" t="s">
+        <v>446</v>
+      </c>
+      <c r="K70" t="s">
+        <v>447</v>
+      </c>
+      <c r="L70" t="s">
+        <v>448</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>449</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>452</v>
+      </c>
+      <c r="J71" t="s">
+        <v>453</v>
+      </c>
+      <c r="K71" t="s">
+        <v>454</v>
+      </c>
+      <c r="L71" t="s">
+        <v>455</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>449</v>
+      </c>
+      <c r="O71" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>457</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>458</v>
+      </c>
+      <c r="J72" t="s">
+        <v>459</v>
+      </c>
+      <c r="K72" t="s">
+        <v>460</v>
+      </c>
+      <c r="L72" t="s">
+        <v>461</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>449</v>
+      </c>
+      <c r="O72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>463</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>464</v>
+      </c>
+      <c r="J73" t="s">
+        <v>465</v>
+      </c>
+      <c r="K73" t="s">
+        <v>466</v>
+      </c>
+      <c r="L73" t="s">
+        <v>467</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>449</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>468</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>469</v>
+      </c>
+      <c r="J74" t="s">
+        <v>470</v>
+      </c>
+      <c r="K74" t="s">
+        <v>471</v>
+      </c>
+      <c r="L74" t="s">
+        <v>472</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>449</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>474</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>475</v>
+      </c>
+      <c r="J75" t="s">
+        <v>476</v>
+      </c>
+      <c r="K75" t="s">
+        <v>477</v>
+      </c>
+      <c r="L75" t="s">
+        <v>478</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>479</v>
+      </c>
+      <c r="O75" t="s">
+        <v>50</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>481</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>482</v>
+      </c>
+      <c r="J76" t="s">
+        <v>483</v>
+      </c>
+      <c r="K76" t="s">
+        <v>484</v>
+      </c>
+      <c r="L76" t="s">
+        <v>485</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>486</v>
+      </c>
+      <c r="O76" t="s">
+        <v>50</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>487</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>488</v>
+      </c>
+      <c r="J77" t="s">
+        <v>489</v>
+      </c>
+      <c r="K77" t="s">
+        <v>490</v>
+      </c>
+      <c r="L77" t="s">
+        <v>491</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>492</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>493</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>494</v>
+      </c>
+      <c r="J78" t="s">
+        <v>495</v>
+      </c>
+      <c r="K78" t="s">
+        <v>496</v>
+      </c>
+      <c r="L78" t="s">
+        <v>497</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>498</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>500</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>501</v>
+      </c>
+      <c r="J79" t="s">
+        <v>502</v>
+      </c>
+      <c r="K79" t="s">
+        <v>503</v>
+      </c>
+      <c r="L79" t="s">
+        <v>504</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>505</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>506</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>507</v>
+      </c>
+      <c r="J80" t="s">
+        <v>508</v>
+      </c>
+      <c r="K80" t="s">
+        <v>509</v>
+      </c>
+      <c r="L80" t="s">
+        <v>510</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>505</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>511</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>512</v>
+      </c>
+      <c r="J81" t="s">
+        <v>513</v>
+      </c>
+      <c r="K81" t="s">
+        <v>514</v>
+      </c>
+      <c r="L81" t="s">
+        <v>515</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>505</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>517</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>518</v>
+      </c>
+      <c r="J82" t="s">
+        <v>519</v>
+      </c>
+      <c r="K82" t="s">
+        <v>520</v>
+      </c>
+      <c r="L82" t="s">
+        <v>521</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>498</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>523</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>524</v>
+      </c>
+      <c r="J83" t="s">
+        <v>525</v>
+      </c>
+      <c r="K83" t="s">
+        <v>526</v>
+      </c>
+      <c r="L83" t="s">
+        <v>527</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>498</v>
+      </c>
+      <c r="O83" t="s">
+        <v>34</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>529</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>530</v>
+      </c>
+      <c r="J84" t="s">
+        <v>531</v>
+      </c>
+      <c r="K84" t="s">
+        <v>532</v>
+      </c>
+      <c r="L84" t="s">
+        <v>533</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>492</v>
+      </c>
+      <c r="O84" t="s">
+        <v>42</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>534</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>535</v>
+      </c>
+      <c r="J85" t="s">
+        <v>536</v>
+      </c>
+      <c r="K85" t="s">
+        <v>537</v>
+      </c>
+      <c r="L85" t="s">
+        <v>538</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>539</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>540</v>
+      </c>
+      <c r="J86" t="s">
+        <v>541</v>
+      </c>
+      <c r="K86" t="s">
+        <v>542</v>
+      </c>
+      <c r="L86" t="s">
+        <v>543</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>544</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>545</v>
+      </c>
+      <c r="J87" t="s">
+        <v>546</v>
+      </c>
+      <c r="K87" t="s">
+        <v>547</v>
+      </c>
+      <c r="L87" t="s">
+        <v>548</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>549</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>550</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>551</v>
+      </c>
+      <c r="J88" t="s">
+        <v>552</v>
+      </c>
+      <c r="K88" t="s">
+        <v>553</v>
+      </c>
+      <c r="L88" t="s">
+        <v>554</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>555</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>556</v>
+      </c>
+      <c r="J89" t="s">
+        <v>557</v>
+      </c>
+      <c r="K89" t="s">
+        <v>558</v>
+      </c>
+      <c r="L89" t="s">
+        <v>559</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>560</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>562</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>563</v>
+      </c>
+      <c r="J90" t="s">
+        <v>564</v>
+      </c>
+      <c r="K90" t="s">
+        <v>565</v>
+      </c>
+      <c r="L90" t="s">
+        <v>566</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>567</v>
+      </c>
+      <c r="O90" t="s">
+        <v>88</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>569</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>570</v>
+      </c>
+      <c r="J91" t="s">
+        <v>571</v>
+      </c>
+      <c r="K91" t="s">
+        <v>572</v>
+      </c>
+      <c r="L91" t="s">
+        <v>573</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>574</v>
+      </c>
+      <c r="O91" t="s">
+        <v>62</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>575</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>576</v>
+      </c>
+      <c r="J92" t="s">
+        <v>577</v>
+      </c>
+      <c r="K92" t="s">
+        <v>578</v>
+      </c>
+      <c r="L92" t="s">
+        <v>579</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>580</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>581</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>582</v>
+      </c>
+      <c r="J93" t="s">
+        <v>583</v>
+      </c>
+      <c r="K93" t="s">
+        <v>584</v>
+      </c>
+      <c r="L93" t="s">
+        <v>585</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>586</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>587</v>
+      </c>
+      <c r="J94" t="s">
+        <v>588</v>
+      </c>
+      <c r="K94" t="s">
+        <v>589</v>
+      </c>
+      <c r="L94" t="s">
+        <v>590</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>591</v>
+      </c>
+      <c r="O94" t="s">
+        <v>34</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>593</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>594</v>
+      </c>
+      <c r="J95" t="s">
+        <v>595</v>
+      </c>
+      <c r="K95" t="s">
+        <v>596</v>
+      </c>
+      <c r="L95" t="s">
+        <v>597</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>598</v>
+      </c>
+      <c r="O95" t="s">
+        <v>88</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>600</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>601</v>
+      </c>
+      <c r="J96" t="s">
+        <v>602</v>
+      </c>
+      <c r="K96" t="s">
+        <v>603</v>
+      </c>
+      <c r="L96" t="s">
+        <v>604</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>605</v>
+      </c>
+      <c r="O96" t="s">
+        <v>62</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>606</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>607</v>
+      </c>
+      <c r="J97" t="s">
+        <v>608</v>
+      </c>
+      <c r="K97" t="s">
+        <v>609</v>
+      </c>
+      <c r="L97" t="s">
+        <v>610</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>611</v>
+      </c>
+      <c r="O97" t="s">
+        <v>50</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>612</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>613</v>
+      </c>
+      <c r="J98" t="s">
+        <v>614</v>
+      </c>
+      <c r="K98" t="s">
+        <v>615</v>
+      </c>
+      <c r="L98" t="s">
+        <v>616</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>617</v>
+      </c>
+      <c r="O98" t="s">
+        <v>88</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>618</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>619</v>
+      </c>
+      <c r="J99" t="s">
+        <v>620</v>
+      </c>
+      <c r="K99" t="s">
+        <v>621</v>
+      </c>
+      <c r="L99" t="s">
+        <v>622</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>623</v>
+      </c>
+      <c r="O99" t="s">
+        <v>42</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>624</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +8529,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>625</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>626</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>627</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>628</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>629</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>630</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>631</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>632</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +8561,31 @@
         <v>4145</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>634</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>635</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>636</v>
       </c>
       <c r="E2" t="n">
         <v>70062</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>637</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>638</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>639</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>640</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
